--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3159328.549819315</v>
+        <v>3157151.372852944</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8315314.745881532</v>
+        <v>8315314.745881534</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211919.2992144385</v>
+        <v>211919.2992144383</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11.91464376220975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.73205987707308</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E3" t="n">
+      <c r="Y3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,64 +820,64 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E4" t="n">
+      <c r="R4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G4" t="n">
+      <c r="W4" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,49 +990,49 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T7" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>15.30273751513505</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>4.067871852857845</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.3875692273843473</v>
       </c>
     </row>
     <row r="9">
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="X10" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="V10" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="W10" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="X10" t="n">
-        <v>22.56635248423083</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4610888162666</v>
+        <v>332.4610888162667</v>
       </c>
       <c r="C11" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237937</v>
       </c>
       <c r="D11" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734691</v>
       </c>
       <c r="E11" t="n">
-        <v>331.6576172250478</v>
+        <v>331.6576172250479</v>
       </c>
       <c r="F11" t="n">
-        <v>356.6032928944975</v>
+        <v>356.6032928944976</v>
       </c>
       <c r="G11" t="n">
-        <v>360.8115083754196</v>
+        <v>360.8115083754197</v>
       </c>
       <c r="H11" t="n">
-        <v>245.9995789379718</v>
+        <v>245.9995789379722</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.61878822365301</v>
+        <v>62.61878822365313</v>
       </c>
       <c r="T11" t="n">
-        <v>154.356716746492</v>
+        <v>154.3567167464921</v>
       </c>
       <c r="U11" t="n">
-        <v>200.7354219572224</v>
+        <v>200.7354219572225</v>
       </c>
       <c r="V11" t="n">
-        <v>277.479505622921</v>
+        <v>277.4795056229211</v>
       </c>
       <c r="W11" t="n">
-        <v>298.9682158701991</v>
+        <v>298.9682158701992</v>
       </c>
       <c r="X11" t="n">
-        <v>319.4583478312551</v>
+        <v>319.4583478312552</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.9651858088396</v>
+        <v>335.9651858088397</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.5592273347233</v>
+        <v>129.5592273347235</v>
       </c>
       <c r="C13" t="n">
-        <v>116.9740682514139</v>
+        <v>116.974068251414</v>
       </c>
       <c r="D13" t="n">
-        <v>98.3427201709984</v>
+        <v>98.34272017099852</v>
       </c>
       <c r="E13" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935533</v>
       </c>
       <c r="F13" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571741</v>
       </c>
       <c r="G13" t="n">
-        <v>115.8259632726617</v>
+        <v>115.8259632726586</v>
       </c>
       <c r="H13" t="n">
-        <v>95.13047922991352</v>
+        <v>95.13047922991363</v>
       </c>
       <c r="I13" t="n">
-        <v>48.27220577792527</v>
+        <v>48.27220577792539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93760236602544</v>
+        <v>41.93760236602556</v>
       </c>
       <c r="S13" t="n">
-        <v>140.7668576591772</v>
+        <v>140.7668576591774</v>
       </c>
       <c r="T13" t="n">
-        <v>169.587711834394</v>
+        <v>169.5877118343942</v>
       </c>
       <c r="U13" t="n">
-        <v>235.9430621508088</v>
+        <v>235.9430621508089</v>
       </c>
       <c r="V13" t="n">
-        <v>201.8648904766141</v>
+        <v>201.8648904766142</v>
       </c>
       <c r="W13" t="n">
-        <v>236.2502454893771</v>
+        <v>236.2502454893772</v>
       </c>
       <c r="X13" t="n">
-        <v>175.4369025418232</v>
+        <v>175.4369025418233</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.3119005048808</v>
+        <v>168.311900504881</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4610888162663</v>
+        <v>332.4610888162666</v>
       </c>
       <c r="C14" t="n">
         <v>315.0001389237936</v>
@@ -1616,7 +1616,7 @@
         <v>331.6576172250478</v>
       </c>
       <c r="F14" t="n">
-        <v>356.6032928944975</v>
+        <v>356.6032928944985</v>
       </c>
       <c r="G14" t="n">
         <v>360.8115083754196</v>
@@ -1765,7 +1765,7 @@
         <v>129.5592273347233</v>
       </c>
       <c r="C16" t="n">
-        <v>116.9740682514136</v>
+        <v>116.9740682514139</v>
       </c>
       <c r="D16" t="n">
         <v>98.3427201709984</v>
@@ -1780,10 +1780,10 @@
         <v>115.8259632726617</v>
       </c>
       <c r="H16" t="n">
-        <v>95.13047922991352</v>
+        <v>95.1304792299135</v>
       </c>
       <c r="I16" t="n">
-        <v>48.27220577792527</v>
+        <v>48.27220577792529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93760236602544</v>
+        <v>41.93760236602545</v>
       </c>
       <c r="S16" t="n">
         <v>140.7668576591772</v>
@@ -1856,7 +1856,7 @@
         <v>356.6032928944975</v>
       </c>
       <c r="G17" t="n">
-        <v>360.8115083754196</v>
+        <v>360.8115083754206</v>
       </c>
       <c r="H17" t="n">
         <v>245.999578937972</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.61878822365262</v>
+        <v>62.61878822365301</v>
       </c>
       <c r="T17" t="n">
         <v>154.356716746492</v>
@@ -2008,7 +2008,7 @@
         <v>98.3427201709984</v>
       </c>
       <c r="E19" t="n">
-        <v>96.16120979935501</v>
+        <v>96.16120979935489</v>
       </c>
       <c r="F19" t="n">
         <v>95.14829517571729</v>
@@ -2239,7 +2239,7 @@
         <v>129.5592273347233</v>
       </c>
       <c r="C22" t="n">
-        <v>116.9740682514136</v>
+        <v>116.9740682514139</v>
       </c>
       <c r="D22" t="n">
         <v>98.3427201709984</v>
@@ -2327,7 +2327,7 @@
         <v>331.6576172250478</v>
       </c>
       <c r="F23" t="n">
-        <v>356.6032928944972</v>
+        <v>356.6032928944975</v>
       </c>
       <c r="G23" t="n">
         <v>360.8115083754196</v>
@@ -2491,10 +2491,10 @@
         <v>115.8259632726617</v>
       </c>
       <c r="H25" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991352</v>
       </c>
       <c r="I25" t="n">
-        <v>48.27220577792527</v>
+        <v>48.27220577792497</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634779</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0842612226335</v>
+        <v>411.0842612226334</v>
       </c>
       <c r="H26" t="n">
         <v>296.272331785186</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>57.51638000097146</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.2103552132394</v>
       </c>
       <c r="S28" t="n">
         <v>191.0396105063912</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.0165740939587</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206809</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0842612226335</v>
+        <v>411.0842612226334</v>
       </c>
       <c r="H29" t="n">
-        <v>296.272331785186</v>
+        <v>296.2723317851859</v>
       </c>
       <c r="I29" t="n">
-        <v>47.84308230374108</v>
+        <v>47.843082303741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>96.26905317112896</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.80621888071962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.0644841755214</v>
+        <v>380.0644841755212</v>
       </c>
       <c r="C32" t="n">
-        <v>362.6035342830484</v>
+        <v>362.6035342830482</v>
       </c>
       <c r="D32" t="n">
-        <v>352.0136841327238</v>
+        <v>352.0136841327236</v>
       </c>
       <c r="E32" t="n">
-        <v>379.2610125843026</v>
+        <v>379.2610125843024</v>
       </c>
       <c r="F32" t="n">
-        <v>404.2066882537522</v>
+        <v>404.2066882537521</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4149037346743</v>
+        <v>408.4149037346742</v>
       </c>
       <c r="H32" t="n">
-        <v>293.6029742972268</v>
+        <v>293.6029742972266</v>
       </c>
       <c r="I32" t="n">
-        <v>45.17372481578187</v>
+        <v>45.17372481578174</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>110.2221835829077</v>
+        <v>110.2221835829076</v>
       </c>
       <c r="T32" t="n">
-        <v>201.9601121057467</v>
+        <v>201.9601121057466</v>
       </c>
       <c r="U32" t="n">
-        <v>248.3388173164772</v>
+        <v>248.338817316477</v>
       </c>
       <c r="V32" t="n">
-        <v>325.0829009821757</v>
+        <v>325.0829009821755</v>
       </c>
       <c r="W32" t="n">
-        <v>346.5716112294538</v>
+        <v>346.5716112294537</v>
       </c>
       <c r="X32" t="n">
-        <v>367.0617431905098</v>
+        <v>367.0617431905097</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.5685811680944</v>
+        <v>383.5685811680942</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.1626226939781</v>
+        <v>177.1626226939779</v>
       </c>
       <c r="C34" t="n">
-        <v>81.36678830549674</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.946115530253</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.54099772528018</v>
+        <v>89.54099772528004</v>
       </c>
       <c r="S34" t="n">
-        <v>188.370253018432</v>
+        <v>188.3702530184318</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.1911071936486</v>
       </c>
       <c r="U34" t="n">
-        <v>283.5464575100635</v>
+        <v>283.5464575100634</v>
       </c>
       <c r="V34" t="n">
-        <v>249.4682858358688</v>
+        <v>183.6131472816014</v>
       </c>
       <c r="W34" t="n">
-        <v>283.8536408486318</v>
+        <v>283.8536408486316</v>
       </c>
       <c r="X34" t="n">
-        <v>223.0402979010779</v>
+        <v>223.0402979010778</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.9152958641356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>332.4610888162666</v>
       </c>
       <c r="C35" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237935</v>
       </c>
       <c r="D35" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734689</v>
       </c>
       <c r="E35" t="n">
         <v>331.6576172250478</v>
       </c>
       <c r="F35" t="n">
-        <v>356.6032928944975</v>
+        <v>356.6032928944974</v>
       </c>
       <c r="G35" t="n">
-        <v>360.8115083754196</v>
+        <v>360.8115083754195</v>
       </c>
       <c r="H35" t="n">
         <v>245.999578937972</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.618788223653</v>
+        <v>62.61878822365298</v>
       </c>
       <c r="T35" t="n">
         <v>154.356716746492</v>
@@ -3323,13 +3323,13 @@
         <v>200.7354219572224</v>
       </c>
       <c r="V35" t="n">
-        <v>277.479505622921</v>
+        <v>277.4795056229209</v>
       </c>
       <c r="W35" t="n">
-        <v>298.9682158701991</v>
+        <v>298.968215870199</v>
       </c>
       <c r="X35" t="n">
-        <v>319.4583478312551</v>
+        <v>319.458347831255</v>
       </c>
       <c r="Y35" t="n">
         <v>335.9651858088396</v>
@@ -3427,22 +3427,22 @@
         <v>116.9740682514139</v>
       </c>
       <c r="D37" t="n">
-        <v>98.34272017099839</v>
+        <v>98.34272017099877</v>
       </c>
       <c r="E37" t="n">
-        <v>96.16120979935521</v>
+        <v>96.16120979935519</v>
       </c>
       <c r="F37" t="n">
-        <v>95.14829517571728</v>
+        <v>95.14829517571727</v>
       </c>
       <c r="G37" t="n">
         <v>115.8259632726616</v>
       </c>
       <c r="H37" t="n">
-        <v>95.13047922991345</v>
+        <v>95.13047922991349</v>
       </c>
       <c r="I37" t="n">
-        <v>48.27220577792526</v>
+        <v>48.27220577792524</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93760236602543</v>
+        <v>41.93760236602542</v>
       </c>
       <c r="S37" t="n">
         <v>140.7668576591772</v>
@@ -3478,13 +3478,13 @@
         <v>169.587711834394</v>
       </c>
       <c r="U37" t="n">
-        <v>235.9430621508088</v>
+        <v>235.9430621508087</v>
       </c>
       <c r="V37" t="n">
-        <v>201.8648904766141</v>
+        <v>201.864890476614</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2502454893771</v>
+        <v>236.250245489377</v>
       </c>
       <c r="X37" t="n">
         <v>175.4369025418232</v>
@@ -3503,19 +3503,19 @@
         <v>332.4610888162666</v>
       </c>
       <c r="C38" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237935</v>
       </c>
       <c r="D38" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734689</v>
       </c>
       <c r="E38" t="n">
         <v>331.6576172250478</v>
       </c>
       <c r="F38" t="n">
-        <v>356.6032928944975</v>
+        <v>356.6032928944974</v>
       </c>
       <c r="G38" t="n">
-        <v>360.8115083754196</v>
+        <v>360.8115083754203</v>
       </c>
       <c r="H38" t="n">
         <v>245.999578937972</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.618788223653</v>
+        <v>62.61878822365298</v>
       </c>
       <c r="T38" t="n">
         <v>154.356716746492</v>
@@ -3560,13 +3560,13 @@
         <v>200.7354219572224</v>
       </c>
       <c r="V38" t="n">
-        <v>277.479505622921</v>
+        <v>277.4795056229209</v>
       </c>
       <c r="W38" t="n">
-        <v>298.9682158701991</v>
+        <v>298.968215870199</v>
       </c>
       <c r="X38" t="n">
-        <v>319.4583478312551</v>
+        <v>319.458347831255</v>
       </c>
       <c r="Y38" t="n">
         <v>335.9651858088396</v>
@@ -3664,22 +3664,22 @@
         <v>116.9740682514139</v>
       </c>
       <c r="D40" t="n">
-        <v>98.34272017099839</v>
+        <v>98.34272017099838</v>
       </c>
       <c r="E40" t="n">
-        <v>96.16120979935521</v>
+        <v>96.16120979935519</v>
       </c>
       <c r="F40" t="n">
-        <v>95.14829517571728</v>
+        <v>95.14829517571727</v>
       </c>
       <c r="G40" t="n">
         <v>115.8259632726616</v>
       </c>
       <c r="H40" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991349</v>
       </c>
       <c r="I40" t="n">
-        <v>48.27220577792517</v>
+        <v>48.27220577792524</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93760236602543</v>
+        <v>41.93760236602542</v>
       </c>
       <c r="S40" t="n">
         <v>140.7668576591772</v>
@@ -3715,13 +3715,13 @@
         <v>169.587711834394</v>
       </c>
       <c r="U40" t="n">
-        <v>235.9430621508088</v>
+        <v>235.9430621508087</v>
       </c>
       <c r="V40" t="n">
-        <v>201.8648904766141</v>
+        <v>201.864890476614</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2502454893771</v>
+        <v>236.250245489377</v>
       </c>
       <c r="X40" t="n">
         <v>175.4369025418232</v>
@@ -3740,19 +3740,19 @@
         <v>332.4610888162666</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237935</v>
       </c>
       <c r="D41" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734696</v>
       </c>
       <c r="E41" t="n">
         <v>331.6576172250478</v>
       </c>
       <c r="F41" t="n">
-        <v>356.6032928944975</v>
+        <v>356.6032928944974</v>
       </c>
       <c r="G41" t="n">
-        <v>360.8115083754196</v>
+        <v>360.8115083754195</v>
       </c>
       <c r="H41" t="n">
         <v>245.999578937972</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.61878822365301</v>
+        <v>62.61878822365298</v>
       </c>
       <c r="T41" t="n">
-        <v>154.3567167464918</v>
+        <v>154.356716746492</v>
       </c>
       <c r="U41" t="n">
         <v>200.7354219572224</v>
       </c>
       <c r="V41" t="n">
-        <v>277.479505622921</v>
+        <v>277.4795056229209</v>
       </c>
       <c r="W41" t="n">
-        <v>298.9682158701991</v>
+        <v>298.968215870199</v>
       </c>
       <c r="X41" t="n">
-        <v>319.4583478312551</v>
+        <v>319.458347831255</v>
       </c>
       <c r="Y41" t="n">
         <v>335.9651858088396</v>
@@ -3901,22 +3901,22 @@
         <v>116.9740682514139</v>
       </c>
       <c r="D43" t="n">
-        <v>98.3427201709984</v>
+        <v>98.34272017099838</v>
       </c>
       <c r="E43" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935519</v>
       </c>
       <c r="F43" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571727</v>
       </c>
       <c r="G43" t="n">
-        <v>115.8259632726617</v>
+        <v>115.8259632726616</v>
       </c>
       <c r="H43" t="n">
-        <v>95.13047922991352</v>
+        <v>95.13047922991349</v>
       </c>
       <c r="I43" t="n">
-        <v>48.27220577792527</v>
+        <v>48.27220577792571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93760236602558</v>
+        <v>41.93760236602542</v>
       </c>
       <c r="S43" t="n">
         <v>140.7668576591772</v>
@@ -3952,13 +3952,13 @@
         <v>169.587711834394</v>
       </c>
       <c r="U43" t="n">
-        <v>235.9430621508088</v>
+        <v>235.9430621508087</v>
       </c>
       <c r="V43" t="n">
-        <v>201.8648904766141</v>
+        <v>201.864890476614</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2502454893771</v>
+        <v>236.250245489377</v>
       </c>
       <c r="X43" t="n">
         <v>175.4369025418232</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.4610888162666</v>
+        <v>332.4610888162667</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237937</v>
       </c>
       <c r="D44" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734691</v>
       </c>
       <c r="E44" t="n">
-        <v>331.6576172250478</v>
+        <v>331.6576172250479</v>
       </c>
       <c r="F44" t="n">
         <v>356.6032928944975</v>
       </c>
       <c r="G44" t="n">
-        <v>360.8115083754197</v>
+        <v>360.8115083754196</v>
       </c>
       <c r="H44" t="n">
-        <v>245.999578937972</v>
+        <v>245.9995789379721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.61878822365301</v>
+        <v>62.61878822365307</v>
       </c>
       <c r="T44" t="n">
-        <v>154.356716746492</v>
+        <v>154.3567167464921</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7354219572224</v>
+        <v>200.7354219572225</v>
       </c>
       <c r="V44" t="n">
         <v>277.479505622921</v>
@@ -4043,7 +4043,7 @@
         <v>319.4583478312551</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.9651858088396</v>
+        <v>335.9651858088397</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.5592273347233</v>
+        <v>129.5592273347234</v>
       </c>
       <c r="C46" t="n">
         <v>116.9740682514139</v>
       </c>
       <c r="D46" t="n">
-        <v>98.3427201709984</v>
+        <v>98.34272017099846</v>
       </c>
       <c r="E46" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935528</v>
       </c>
       <c r="F46" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571735</v>
       </c>
       <c r="G46" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H46" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991173</v>
       </c>
       <c r="I46" t="n">
-        <v>48.27220577792528</v>
+        <v>48.27220577792533</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93760236602544</v>
+        <v>41.9376023660255</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7668576591772</v>
+        <v>140.7668576591773</v>
       </c>
       <c r="T46" t="n">
-        <v>169.587711834394</v>
+        <v>169.5877118343941</v>
       </c>
       <c r="U46" t="n">
         <v>235.9430621508088</v>
@@ -4198,10 +4198,10 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X46" t="n">
-        <v>175.4369025418232</v>
+        <v>175.4369025418233</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.3119005048808</v>
+        <v>168.3119005048809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
@@ -4334,16 +4334,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
-        <v>16.37392914119451</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N2" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O2" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
@@ -4352,28 +4352,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="T2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L3" t="n">
         <v>16.37392914119451</v>
@@ -4419,10 +4419,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O3" t="n">
-        <v>46.0612399205565</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P3" t="n">
         <v>46.0612399205565</v>
@@ -4431,28 +4431,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X3" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
         <v>1.224219001210804</v>
@@ -4495,10 +4495,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
@@ -4507,31 +4507,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V4" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
@@ -4574,43 +4574,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O5" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C6" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D6" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
@@ -4650,16 +4650,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M6" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N6" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O6" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P6" t="n">
         <v>46.0612399205565</v>
@@ -4668,28 +4668,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T6" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="S6" t="n">
-        <v>32.89297289669359</v>
-      </c>
-      <c r="T6" t="n">
-        <v>32.89297289669359</v>
-      </c>
       <c r="U6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X6" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="7">
@@ -4732,7 +4732,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
         <v>46.0612399205565</v>
@@ -4747,22 +4747,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T7" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W7" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X7" t="n">
         <v>1.224219001210804</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.28058794276306</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="C8" t="n">
-        <v>88.28058794276306</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="D8" t="n">
-        <v>62.40150592798445</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="E8" t="n">
-        <v>36.52242391320583</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="F8" t="n">
-        <v>29.57692316400236</v>
+        <v>43.38601593169762</v>
       </c>
       <c r="G8" t="n">
-        <v>14.11961254265382</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H8" t="n">
-        <v>14.11961254265382</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
@@ -4808,13 +4808,13 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
+        <v>27.41371157825499</v>
+      </c>
+      <c r="M8" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>78.14188814362403</v>
-      </c>
-      <c r="N8" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
         <v>102.4811647785233</v>
@@ -4823,31 +4823,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>92.38954941029624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T8" t="n">
-        <v>92.38954941029624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U8" t="n">
-        <v>88.28058794276306</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V8" t="n">
-        <v>88.28058794276306</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W8" t="n">
-        <v>88.28058794276306</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X8" t="n">
-        <v>88.28058794276306</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y8" t="n">
-        <v>88.28058794276306</v>
+        <v>50.33151668090109</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
         <v>2.049623295570466</v>
@@ -4884,19 +4884,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M9" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="M9" t="n">
-        <v>77.1170764958388</v>
-      </c>
-      <c r="N9" t="n">
-        <v>77.1170764958388</v>
-      </c>
       <c r="O9" t="n">
-        <v>102.4811647785233</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P9" t="n">
         <v>102.4811647785233</v>
@@ -4905,28 +4905,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U9" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V9" t="n">
-        <v>76.6020827637447</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W9" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X9" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4984,22 +4984,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U10" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V10" t="n">
         <v>50.72300074896609</v>
       </c>
       <c r="W10" t="n">
-        <v>24.84391873418747</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X10" t="n">
         <v>2.049623295570466</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2014.144805759365</v>
+        <v>2014.144805759367</v>
       </c>
       <c r="C11" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D11" t="n">
-        <v>1388.477707075262</v>
+        <v>1388.477707075263</v>
       </c>
       <c r="E11" t="n">
-        <v>1053.470012908547</v>
+        <v>1053.470012908548</v>
       </c>
       <c r="F11" t="n">
-        <v>693.2646665504685</v>
+        <v>693.2646665504699</v>
       </c>
       <c r="G11" t="n">
-        <v>328.8085974843881</v>
+        <v>328.8085974843885</v>
       </c>
       <c r="H11" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="I11" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J11" t="n">
-        <v>422.951901062047</v>
+        <v>422.9519010620471</v>
       </c>
       <c r="K11" t="n">
-        <v>846.0754929831348</v>
+        <v>911.1347486573889</v>
       </c>
       <c r="L11" t="n">
-        <v>1271.716867716492</v>
+        <v>1336.776123390746</v>
       </c>
       <c r="M11" t="n">
-        <v>1776.994346864242</v>
+        <v>1842.053602538496</v>
       </c>
       <c r="N11" t="n">
-        <v>2295.061552254776</v>
+        <v>2360.12080792903</v>
       </c>
       <c r="O11" t="n">
-        <v>2770.922462401239</v>
+        <v>2835.981718075494</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.138460010804</v>
+        <v>3526.197715685058</v>
       </c>
       <c r="Q11" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377213</v>
       </c>
       <c r="R11" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S11" t="n">
-        <v>3952.957414499967</v>
+        <v>3952.957414499969</v>
       </c>
       <c r="T11" t="n">
-        <v>3797.041538998461</v>
+        <v>3797.041538998462</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V11" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604378</v>
       </c>
       <c r="W11" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765793</v>
       </c>
       <c r="X11" t="n">
-        <v>2689.32286093624</v>
+        <v>2689.322860936242</v>
       </c>
       <c r="Y11" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.96408739196</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>183.4781137360803</v>
       </c>
       <c r="H12" t="n">
-        <v>92.12784457235195</v>
+        <v>92.12784457235198</v>
       </c>
       <c r="I12" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J12" t="n">
-        <v>165.8673964605083</v>
+        <v>165.8673964605084</v>
       </c>
       <c r="K12" t="n">
         <v>390.229212956544</v>
@@ -5127,16 +5127,16 @@
         <v>738.233904358493</v>
       </c>
       <c r="M12" t="n">
-        <v>1292.1258771175</v>
+        <v>1163.695833075969</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.257162002394</v>
+        <v>1614.827117960864</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.734356822941</v>
+        <v>2005.304312781411</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.793664500746</v>
+        <v>2299.363620459215</v>
       </c>
       <c r="Q12" t="n">
         <v>2574.445327809855</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.9049234844013</v>
+        <v>752.9049234843994</v>
       </c>
       <c r="C13" t="n">
-        <v>634.7492989880236</v>
+        <v>634.7492989880217</v>
       </c>
       <c r="D13" t="n">
-        <v>535.4132180072171</v>
+        <v>535.4132180072151</v>
       </c>
       <c r="E13" t="n">
-        <v>438.2806828563532</v>
+        <v>438.2806828563511</v>
       </c>
       <c r="F13" t="n">
-        <v>342.1712937899722</v>
+        <v>342.1712937899698</v>
       </c>
       <c r="G13" t="n">
-        <v>225.1753712923343</v>
+        <v>225.1753712923348</v>
       </c>
       <c r="H13" t="n">
-        <v>129.0839781308055</v>
+        <v>129.0839781308059</v>
       </c>
       <c r="I13" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J13" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761064</v>
       </c>
       <c r="K13" t="n">
-        <v>415.4851382890594</v>
+        <v>415.4851382890591</v>
       </c>
       <c r="L13" t="n">
         <v>771.083945649615</v>
@@ -5215,34 +5215,34 @@
         <v>1872.727225651455</v>
       </c>
       <c r="P13" t="n">
-        <v>2146.375055777435</v>
+        <v>2146.375055777434</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492304</v>
       </c>
       <c r="R13" t="n">
-        <v>2225.350173981168</v>
+        <v>2225.350173981167</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.161428870888</v>
+        <v>2083.161428870887</v>
       </c>
       <c r="T13" t="n">
-        <v>1911.860709846247</v>
+        <v>1911.860709846246</v>
       </c>
       <c r="U13" t="n">
-        <v>1673.53438444139</v>
+        <v>1673.534384441389</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.630454667032</v>
+        <v>1469.630454667031</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.993843061601</v>
+        <v>1230.993843061599</v>
       </c>
       <c r="X13" t="n">
-        <v>1053.784850595113</v>
+        <v>1053.784850595111</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.7728298831117</v>
+        <v>883.77282988311</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2014.144805759366</v>
+        <v>2014.144805759367</v>
       </c>
       <c r="C14" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.477707075262</v>
+        <v>1388.477707075263</v>
       </c>
       <c r="E14" t="n">
-        <v>1053.470012908547</v>
+        <v>1053.470012908548</v>
       </c>
       <c r="F14" t="n">
-        <v>693.2646665504687</v>
+        <v>693.2646665504689</v>
       </c>
       <c r="G14" t="n">
         <v>328.8085974843884</v>
       </c>
       <c r="H14" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="I14" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J14" t="n">
-        <v>422.951901062047</v>
+        <v>422.9519010620471</v>
       </c>
       <c r="K14" t="n">
-        <v>1057.206850628336</v>
+        <v>796.7420145792923</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.848225361693</v>
+        <v>1222.383389312649</v>
       </c>
       <c r="M14" t="n">
-        <v>1988.125704509443</v>
+        <v>1727.660868460399</v>
       </c>
       <c r="N14" t="n">
-        <v>2506.192909899978</v>
+        <v>2678.701529018798</v>
       </c>
       <c r="O14" t="n">
-        <v>2982.053820046441</v>
+        <v>3154.562439165261</v>
       </c>
       <c r="P14" t="n">
-        <v>3461.138460010804</v>
+        <v>3526.197715685058</v>
       </c>
       <c r="Q14" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377213</v>
       </c>
       <c r="R14" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S14" t="n">
-        <v>3952.957414499967</v>
+        <v>3952.957414499969</v>
       </c>
       <c r="T14" t="n">
-        <v>3797.041538998461</v>
+        <v>3797.041538998462</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V14" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604377</v>
       </c>
       <c r="W14" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765792</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.32286093624</v>
+        <v>2689.322860936242</v>
       </c>
       <c r="Y14" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.964087391959</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>183.4781137360803</v>
       </c>
       <c r="H15" t="n">
-        <v>92.12784457235195</v>
+        <v>92.12784457235198</v>
       </c>
       <c r="I15" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J15" t="n">
-        <v>165.8673964605083</v>
+        <v>165.8673964605084</v>
       </c>
       <c r="K15" t="n">
         <v>390.229212956544</v>
       </c>
       <c r="L15" t="n">
-        <v>738.233904358493</v>
+        <v>866.6639484000234</v>
       </c>
       <c r="M15" t="n">
-        <v>1163.695833075969</v>
+        <v>1292.1258771175</v>
       </c>
       <c r="N15" t="n">
         <v>1743.257162002394</v>
@@ -5413,43 +5413,43 @@
         <v>752.9049234844015</v>
       </c>
       <c r="C16" t="n">
-        <v>634.7492989880241</v>
+        <v>634.7492989880238</v>
       </c>
       <c r="D16" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072173</v>
       </c>
       <c r="E16" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563535</v>
       </c>
       <c r="F16" t="n">
-        <v>342.1712937899726</v>
+        <v>342.1712937899724</v>
       </c>
       <c r="G16" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923343</v>
       </c>
       <c r="H16" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308055</v>
       </c>
       <c r="I16" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J16" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761063</v>
       </c>
       <c r="K16" t="n">
-        <v>415.4851382890594</v>
+        <v>415.4851382890591</v>
       </c>
       <c r="L16" t="n">
-        <v>771.0839456496153</v>
+        <v>771.0839456496151</v>
       </c>
       <c r="M16" t="n">
         <v>1153.696664366584</v>
       </c>
       <c r="N16" t="n">
-        <v>1533.829744196395</v>
+        <v>1533.829744196396</v>
       </c>
       <c r="O16" t="n">
-        <v>1872.727225651455</v>
+        <v>1872.727225651456</v>
       </c>
       <c r="P16" t="n">
         <v>2146.375055777435</v>
@@ -5461,10 +5461,10 @@
         <v>2225.350173981168</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.161428870888</v>
+        <v>2083.161428870887</v>
       </c>
       <c r="T16" t="n">
-        <v>1911.860709846247</v>
+        <v>1911.860709846248</v>
       </c>
       <c r="U16" t="n">
         <v>1673.53438444139</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2014.144805759366</v>
+        <v>2014.144805759367</v>
       </c>
       <c r="C17" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.477707075262</v>
+        <v>1388.477707075263</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.470012908547</v>
+        <v>1053.470012908548</v>
       </c>
       <c r="F17" t="n">
-        <v>693.2646665504687</v>
+        <v>693.2646665504699</v>
       </c>
       <c r="G17" t="n">
         <v>328.8085974843884</v>
       </c>
       <c r="H17" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="I17" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J17" t="n">
-        <v>422.951901062047</v>
+        <v>422.9519010620471</v>
       </c>
       <c r="K17" t="n">
-        <v>846.0754929831348</v>
+        <v>1057.206850628336</v>
       </c>
       <c r="L17" t="n">
-        <v>1271.716867716492</v>
+        <v>1482.848225361693</v>
       </c>
       <c r="M17" t="n">
-        <v>1776.994346864242</v>
+        <v>2370.826164381569</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.061552254776</v>
+        <v>2888.893369772104</v>
       </c>
       <c r="O17" t="n">
-        <v>2770.922462401239</v>
+        <v>3364.754279918567</v>
       </c>
       <c r="P17" t="n">
-        <v>3461.138460010804</v>
+        <v>3736.389556438363</v>
       </c>
       <c r="Q17" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377213</v>
       </c>
       <c r="R17" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S17" t="n">
-        <v>3952.957414499968</v>
+        <v>3952.957414499969</v>
       </c>
       <c r="T17" t="n">
-        <v>3797.041538998461</v>
+        <v>3797.041538998462</v>
       </c>
       <c r="U17" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V17" t="n">
         <v>3313.996157604377</v>
       </c>
       <c r="W17" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765792</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.322860936241</v>
+        <v>2689.322860936242</v>
       </c>
       <c r="Y17" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.964087391959</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>183.4781137360803</v>
       </c>
       <c r="H18" t="n">
-        <v>92.12784457235195</v>
+        <v>92.12784457235198</v>
       </c>
       <c r="I18" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J18" t="n">
         <v>290.6975214475131</v>
       </c>
       <c r="K18" t="n">
-        <v>515.0593379435487</v>
+        <v>518.6592569980744</v>
       </c>
       <c r="L18" t="n">
-        <v>863.0640293454978</v>
+        <v>866.6639484000234</v>
       </c>
       <c r="M18" t="n">
-        <v>1288.525958062974</v>
+        <v>1292.1258771175</v>
       </c>
       <c r="N18" t="n">
-        <v>1739.657242947869</v>
+        <v>1743.257162002394</v>
       </c>
       <c r="O18" t="n">
-        <v>2130.134437768416</v>
+        <v>2133.734356822941</v>
       </c>
       <c r="P18" t="n">
         <v>2427.793664500746</v>
@@ -5656,19 +5656,19 @@
         <v>535.4132180072173</v>
       </c>
       <c r="E19" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563538</v>
       </c>
       <c r="F19" t="n">
-        <v>342.1712937899726</v>
+        <v>342.1712937899727</v>
       </c>
       <c r="G19" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923346</v>
       </c>
       <c r="H19" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308058</v>
       </c>
       <c r="I19" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J19" t="n">
         <v>170.1137921761065</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2014.144805759366</v>
+        <v>2014.144805759365</v>
       </c>
       <c r="C20" t="n">
         <v>1695.962847250483</v>
@@ -5744,43 +5744,43 @@
         <v>328.8085974843884</v>
       </c>
       <c r="H20" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="I20" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J20" t="n">
-        <v>422.951901062047</v>
+        <v>255.546252041694</v>
       </c>
       <c r="K20" t="n">
-        <v>736.3028921828834</v>
+        <v>744.3344099605763</v>
       </c>
       <c r="L20" t="n">
-        <v>1161.94426691624</v>
+        <v>1169.975784693933</v>
       </c>
       <c r="M20" t="n">
-        <v>1667.22174606399</v>
+        <v>1675.253263841683</v>
       </c>
       <c r="N20" t="n">
-        <v>2185.288951454525</v>
+        <v>2193.320469232218</v>
       </c>
       <c r="O20" t="n">
-        <v>3038.142041051106</v>
+        <v>3046.173558828799</v>
       </c>
       <c r="P20" t="n">
-        <v>3728.35803866067</v>
+        <v>3736.389556438363</v>
       </c>
       <c r="Q20" t="n">
-        <v>3959.26790759952</v>
+        <v>3967.299425377213</v>
       </c>
       <c r="R20" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S20" t="n">
         <v>3952.957414499967</v>
       </c>
       <c r="T20" t="n">
-        <v>3797.04153899846</v>
+        <v>3797.041538998461</v>
       </c>
       <c r="U20" t="n">
         <v>3594.278486516418</v>
@@ -5823,19 +5823,19 @@
         <v>183.4781137360803</v>
       </c>
       <c r="H21" t="n">
-        <v>92.12784457235195</v>
+        <v>92.12784457235198</v>
       </c>
       <c r="I21" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J21" t="n">
-        <v>290.6975214475131</v>
+        <v>165.8673964605084</v>
       </c>
       <c r="K21" t="n">
-        <v>515.0593379435487</v>
+        <v>390.229212956544</v>
       </c>
       <c r="L21" t="n">
-        <v>866.6639484000234</v>
+        <v>738.233904358493</v>
       </c>
       <c r="M21" t="n">
         <v>1292.1258771175</v>
@@ -5884,67 +5884,67 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.9049234844015</v>
+        <v>752.904923484402</v>
       </c>
       <c r="C22" t="n">
-        <v>634.7492989880241</v>
+        <v>634.7492989880244</v>
       </c>
       <c r="D22" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072179</v>
       </c>
       <c r="E22" t="n">
-        <v>438.2806828563537</v>
+        <v>438.280682856354</v>
       </c>
       <c r="F22" t="n">
-        <v>342.1712937899726</v>
+        <v>342.1712937899729</v>
       </c>
       <c r="G22" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923348</v>
       </c>
       <c r="H22" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308058</v>
       </c>
       <c r="I22" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471964</v>
       </c>
       <c r="J22" t="n">
         <v>170.1137921761065</v>
       </c>
       <c r="K22" t="n">
-        <v>415.4851382890594</v>
+        <v>415.4851382890598</v>
       </c>
       <c r="L22" t="n">
-        <v>771.0839456496153</v>
+        <v>771.083945649616</v>
       </c>
       <c r="M22" t="n">
-        <v>1153.696664366584</v>
+        <v>1153.696664366585</v>
       </c>
       <c r="N22" t="n">
-        <v>1533.829744196395</v>
+        <v>1533.829744196396</v>
       </c>
       <c r="O22" t="n">
-        <v>1872.727225651455</v>
+        <v>1872.727225651456</v>
       </c>
       <c r="P22" t="n">
-        <v>2146.375055777435</v>
+        <v>2146.375055777436</v>
       </c>
       <c r="Q22" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492306</v>
       </c>
       <c r="R22" t="n">
-        <v>2225.350173981168</v>
+        <v>2225.350173981169</v>
       </c>
       <c r="S22" t="n">
         <v>2083.161428870888</v>
       </c>
       <c r="T22" t="n">
-        <v>1911.860709846247</v>
+        <v>1911.860709846248</v>
       </c>
       <c r="U22" t="n">
-        <v>1673.53438444139</v>
+        <v>1673.534384441391</v>
       </c>
       <c r="V22" t="n">
-        <v>1469.630454667032</v>
+        <v>1469.630454667033</v>
       </c>
       <c r="W22" t="n">
         <v>1230.993843061601</v>
@@ -5953,7 +5953,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.772829883112</v>
+        <v>883.7728298831125</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2014.144805759365</v>
+        <v>2014.144805759366</v>
       </c>
       <c r="C23" t="n">
         <v>1695.962847250483</v>
@@ -5975,46 +5975,46 @@
         <v>1053.470012908547</v>
       </c>
       <c r="F23" t="n">
-        <v>693.2646665504687</v>
+        <v>693.264666550469</v>
       </c>
       <c r="G23" t="n">
         <v>328.8085974843884</v>
       </c>
       <c r="H23" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="I23" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J23" t="n">
-        <v>422.951901062047</v>
+        <v>316.5906847616424</v>
       </c>
       <c r="K23" t="n">
-        <v>1056.26733373644</v>
+        <v>629.9416758824789</v>
       </c>
       <c r="L23" t="n">
-        <v>1481.908708469797</v>
+        <v>1055.583050615836</v>
       </c>
       <c r="M23" t="n">
-        <v>1987.186187617547</v>
+        <v>1560.860529763586</v>
       </c>
       <c r="N23" t="n">
-        <v>2505.253393008082</v>
+        <v>2511.901190321985</v>
       </c>
       <c r="O23" t="n">
-        <v>2981.114303154545</v>
+        <v>3364.754279918566</v>
       </c>
       <c r="P23" t="n">
-        <v>3671.330300764109</v>
+        <v>3736.389556438362</v>
       </c>
       <c r="Q23" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R23" t="n">
         <v>4016.208715735981</v>
       </c>
       <c r="S23" t="n">
-        <v>3952.957414499967</v>
+        <v>3952.957414499968</v>
       </c>
       <c r="T23" t="n">
         <v>3797.041538998461</v>
@@ -6023,13 +6023,13 @@
         <v>3594.278486516418</v>
       </c>
       <c r="V23" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604377</v>
       </c>
       <c r="W23" t="n">
         <v>3012.008060765791</v>
       </c>
       <c r="X23" t="n">
-        <v>2689.32286093624</v>
+        <v>2689.322860936241</v>
       </c>
       <c r="Y23" t="n">
         <v>2349.964087391958</v>
@@ -6060,13 +6060,13 @@
         <v>183.4781137360803</v>
       </c>
       <c r="H24" t="n">
-        <v>92.12784457235195</v>
+        <v>92.12784457235196</v>
       </c>
       <c r="I24" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J24" t="n">
-        <v>165.8673964605083</v>
+        <v>165.8673964605084</v>
       </c>
       <c r="K24" t="n">
         <v>390.229212956544</v>
@@ -6084,7 +6084,7 @@
         <v>2005.304312781411</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.793664500746</v>
+        <v>2299.363620459215</v>
       </c>
       <c r="Q24" t="n">
         <v>2574.445327809855</v>
@@ -6133,31 +6133,31 @@
         <v>438.2806828563535</v>
       </c>
       <c r="F25" t="n">
-        <v>342.1712937899725</v>
+        <v>342.1712937899723</v>
       </c>
       <c r="G25" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923343</v>
       </c>
       <c r="H25" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308055</v>
       </c>
       <c r="I25" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J25" t="n">
         <v>170.1137921761065</v>
       </c>
       <c r="K25" t="n">
-        <v>415.4851382890597</v>
+        <v>415.4851382890594</v>
       </c>
       <c r="L25" t="n">
-        <v>771.0839456496157</v>
+        <v>771.0839456496153</v>
       </c>
       <c r="M25" t="n">
-        <v>1153.696664366585</v>
+        <v>1153.696664366584</v>
       </c>
       <c r="N25" t="n">
-        <v>1533.829744196396</v>
+        <v>1533.829744196395</v>
       </c>
       <c r="O25" t="n">
         <v>1872.727225651455</v>
@@ -6175,7 +6175,7 @@
         <v>2083.161428870888</v>
       </c>
       <c r="T25" t="n">
-        <v>1911.860709846248</v>
+        <v>1911.860709846247</v>
       </c>
       <c r="U25" t="n">
         <v>1673.53438444139</v>
@@ -6212,7 +6212,7 @@
         <v>1269.63301689924</v>
       </c>
       <c r="F26" t="n">
-        <v>858.6471121096324</v>
+        <v>858.6471121096322</v>
       </c>
       <c r="G26" t="n">
         <v>443.4104846120225</v>
@@ -6221,55 +6221,55 @@
         <v>144.1455030108245</v>
       </c>
       <c r="I26" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="J26" t="n">
-        <v>438.4468839967973</v>
+        <v>271.0412349764442</v>
       </c>
       <c r="K26" t="n">
-        <v>1072.701833563087</v>
+        <v>584.3922260972806</v>
       </c>
       <c r="L26" t="n">
-        <v>1498.343208296444</v>
+        <v>1010.033600830637</v>
       </c>
       <c r="M26" t="n">
-        <v>2003.620687444194</v>
+        <v>1960.329478136292</v>
       </c>
       <c r="N26" t="n">
-        <v>2692.818519542173</v>
+        <v>2757.877775216423</v>
       </c>
       <c r="O26" t="n">
-        <v>3545.671609138754</v>
+        <v>3610.730864813004</v>
       </c>
       <c r="P26" t="n">
-        <v>4235.887606748318</v>
+        <v>4300.946862422568</v>
       </c>
       <c r="Q26" t="n">
-        <v>4676.989316440473</v>
+        <v>4742.048572114723</v>
       </c>
       <c r="R26" t="n">
-        <v>4790.957862473495</v>
+        <v>4790.957862473492</v>
       </c>
       <c r="S26" t="n">
-        <v>4676.926002805953</v>
+        <v>4676.92600280595</v>
       </c>
       <c r="T26" t="n">
-        <v>4470.229568872916</v>
+        <v>4470.229568872914</v>
       </c>
       <c r="U26" t="n">
-        <v>4216.685957959345</v>
+        <v>4216.685957959341</v>
       </c>
       <c r="V26" t="n">
-        <v>3885.623070615774</v>
+        <v>3885.62307061577</v>
       </c>
       <c r="W26" t="n">
-        <v>3532.85441534566</v>
+        <v>3532.854415345656</v>
       </c>
       <c r="X26" t="n">
-        <v>3159.38865708458</v>
+        <v>3159.388657084576</v>
       </c>
       <c r="Y26" t="n">
-        <v>2769.249325108768</v>
+        <v>2769.249325108764</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.5834913816699</v>
+        <v>964.5834913816697</v>
       </c>
       <c r="C27" t="n">
-        <v>790.1304621005429</v>
+        <v>790.1304621005427</v>
       </c>
       <c r="D27" t="n">
-        <v>641.1960524392916</v>
+        <v>641.1960524392914</v>
       </c>
       <c r="E27" t="n">
-        <v>481.9585974338361</v>
+        <v>481.958597433836</v>
       </c>
       <c r="F27" t="n">
         <v>335.424039460721</v>
       </c>
       <c r="G27" t="n">
-        <v>198.9730966708306</v>
+        <v>198.9730966708305</v>
       </c>
       <c r="H27" t="n">
         <v>107.6228275071022</v>
       </c>
       <c r="I27" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="J27" t="n">
         <v>181.3623793952586</v>
@@ -6318,10 +6318,10 @@
         <v>1630.322100895614</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.229339757691</v>
+        <v>2020.799295716161</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.288647435496</v>
+        <v>2314.858603393965</v>
       </c>
       <c r="Q27" t="n">
         <v>2589.940310744605</v>
@@ -6342,10 +6342,10 @@
         <v>1802.647984100426</v>
       </c>
       <c r="W27" t="n">
-        <v>1548.410627372225</v>
+        <v>1548.410627372224</v>
       </c>
       <c r="X27" t="n">
-        <v>1340.559127166692</v>
+        <v>1340.559127166691</v>
       </c>
       <c r="Y27" t="n">
         <v>1132.798828401738</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.8191572494699</v>
+        <v>322.8526937137116</v>
       </c>
       <c r="C28" t="n">
-        <v>95.8191572494699</v>
+        <v>153.9165107858047</v>
       </c>
       <c r="D28" t="n">
-        <v>95.8191572494699</v>
+        <v>153.9165107858047</v>
       </c>
       <c r="E28" t="n">
-        <v>95.8191572494699</v>
+        <v>153.9165107858047</v>
       </c>
       <c r="F28" t="n">
-        <v>95.8191572494699</v>
+        <v>153.9165107858047</v>
       </c>
       <c r="G28" t="n">
-        <v>95.8191572494699</v>
+        <v>153.9165107858047</v>
       </c>
       <c r="H28" t="n">
-        <v>95.8191572494699</v>
+        <v>153.9165107858047</v>
       </c>
       <c r="I28" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="J28" t="n">
-        <v>135.838749792115</v>
+        <v>135.8387497921149</v>
       </c>
       <c r="K28" t="n">
         <v>331.440070586326</v>
@@ -6406,28 +6406,28 @@
         <v>1885.046168877121</v>
       </c>
       <c r="R28" t="n">
-        <v>1885.046168877121</v>
+        <v>1791.904395934455</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.076865335311</v>
+        <v>1598.935092392645</v>
       </c>
       <c r="T28" t="n">
-        <v>1469.995587879142</v>
+        <v>1376.853814936476</v>
       </c>
       <c r="U28" t="n">
-        <v>1180.888704042755</v>
+        <v>1087.746931100089</v>
       </c>
       <c r="V28" t="n">
-        <v>926.204215836868</v>
+        <v>833.0624428942023</v>
       </c>
       <c r="W28" t="n">
-        <v>636.7870457999074</v>
+        <v>543.6452728572417</v>
       </c>
       <c r="X28" t="n">
-        <v>408.7974949018901</v>
+        <v>543.6452728572417</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.4676220797096</v>
+        <v>322.8526937137116</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2382.649485044646</v>
+        <v>2382.649485044644</v>
       </c>
       <c r="C29" t="n">
-        <v>2013.686968104234</v>
+        <v>2013.686968104232</v>
       </c>
       <c r="D29" t="n">
         <v>1655.421269497484</v>
       </c>
       <c r="E29" t="n">
-        <v>1269.63301689924</v>
+        <v>1269.633016899239</v>
       </c>
       <c r="F29" t="n">
-        <v>858.6471121096321</v>
+        <v>858.6471121096318</v>
       </c>
       <c r="G29" t="n">
-        <v>443.4104846120225</v>
+        <v>443.4104846120223</v>
       </c>
       <c r="H29" t="n">
-        <v>144.1455030108245</v>
+        <v>144.1455030108244</v>
       </c>
       <c r="I29" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="J29" t="n">
-        <v>279.8470719844654</v>
+        <v>271.0412349764442</v>
       </c>
       <c r="K29" t="n">
-        <v>914.1020215507549</v>
+        <v>584.3922260972806</v>
       </c>
       <c r="L29" t="n">
-        <v>1753.227998689058</v>
+        <v>1236.500379836021</v>
       </c>
       <c r="M29" t="n">
-        <v>2703.523875994712</v>
+        <v>1741.777858983771</v>
       </c>
       <c r="N29" t="n">
-        <v>3221.591081385247</v>
+        <v>2692.81851954217</v>
       </c>
       <c r="O29" t="n">
-        <v>4074.444170981827</v>
+        <v>3545.671609138751</v>
       </c>
       <c r="P29" t="n">
-        <v>4446.079447501624</v>
+        <v>4235.887606748315</v>
       </c>
       <c r="Q29" t="n">
-        <v>4676.989316440473</v>
+        <v>4676.98931644047</v>
       </c>
       <c r="R29" t="n">
-        <v>4790.957862473495</v>
+        <v>4790.957862473492</v>
       </c>
       <c r="S29" t="n">
-        <v>4676.926002805953</v>
+        <v>4676.92600280595</v>
       </c>
       <c r="T29" t="n">
-        <v>4470.229568872916</v>
+        <v>4470.229568872914</v>
       </c>
       <c r="U29" t="n">
-        <v>4216.685957959345</v>
+        <v>4216.685957959342</v>
       </c>
       <c r="V29" t="n">
-        <v>3885.623070615774</v>
+        <v>3885.623070615771</v>
       </c>
       <c r="W29" t="n">
-        <v>3532.85441534566</v>
+        <v>3532.854415345657</v>
       </c>
       <c r="X29" t="n">
-        <v>3159.38865708458</v>
+        <v>3159.388657084577</v>
       </c>
       <c r="Y29" t="n">
-        <v>2769.249325108768</v>
+        <v>2769.249325108766</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.5834913816699</v>
+        <v>964.5834913816697</v>
       </c>
       <c r="C30" t="n">
-        <v>790.1304621005429</v>
+        <v>790.1304621005427</v>
       </c>
       <c r="D30" t="n">
-        <v>641.1960524392916</v>
+        <v>641.1960524392914</v>
       </c>
       <c r="E30" t="n">
-        <v>481.9585974338361</v>
+        <v>481.958597433836</v>
       </c>
       <c r="F30" t="n">
         <v>335.424039460721</v>
       </c>
       <c r="G30" t="n">
-        <v>198.9730966708306</v>
+        <v>198.9730966708305</v>
       </c>
       <c r="H30" t="n">
         <v>107.6228275071022</v>
       </c>
       <c r="I30" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="J30" t="n">
-        <v>270.2128656200244</v>
+        <v>181.3623793952586</v>
       </c>
       <c r="K30" t="n">
-        <v>494.57468211606</v>
+        <v>405.7241958912942</v>
       </c>
       <c r="L30" t="n">
-        <v>842.5793735180091</v>
+        <v>753.7288872932434</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.041302235486</v>
+        <v>1179.19081601072</v>
       </c>
       <c r="N30" t="n">
-        <v>1719.17258712038</v>
+        <v>1630.322100895614</v>
       </c>
       <c r="O30" t="n">
-        <v>2109.649781940927</v>
+        <v>2020.799295716161</v>
       </c>
       <c r="P30" t="n">
-        <v>2403.709089618731</v>
+        <v>2443.288647435496</v>
       </c>
       <c r="Q30" t="n">
-        <v>2550.360752927841</v>
+        <v>2589.940310744605</v>
       </c>
       <c r="R30" t="n">
         <v>2589.940310744605</v>
@@ -6579,10 +6579,10 @@
         <v>1802.647984100426</v>
       </c>
       <c r="W30" t="n">
-        <v>1548.410627372225</v>
+        <v>1548.410627372224</v>
       </c>
       <c r="X30" t="n">
-        <v>1340.559127166692</v>
+        <v>1340.559127166691</v>
       </c>
       <c r="Y30" t="n">
         <v>1132.798828401738</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.8191572494699</v>
+        <v>264.7553401773768</v>
       </c>
       <c r="C31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="D31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="E31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="F31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="G31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="H31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="I31" t="n">
-        <v>95.8191572494699</v>
+        <v>95.81915724946985</v>
       </c>
       <c r="J31" t="n">
-        <v>135.838749792115</v>
+        <v>135.8387497921149</v>
       </c>
       <c r="K31" t="n">
         <v>331.440070586326</v>
@@ -6661,10 +6661,10 @@
         <v>543.6452728572417</v>
       </c>
       <c r="X31" t="n">
-        <v>315.6557219592244</v>
+        <v>446.4038050076165</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.4676220797096</v>
+        <v>446.4038050076165</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2362.949835885929</v>
+        <v>2362.949835885926</v>
       </c>
       <c r="C32" t="n">
-        <v>1996.683639640425</v>
+        <v>1996.683639640423</v>
       </c>
       <c r="D32" t="n">
-        <v>1641.114261728583</v>
+        <v>1641.114261728581</v>
       </c>
       <c r="E32" t="n">
-        <v>1258.022329825247</v>
+        <v>1258.022329825245</v>
       </c>
       <c r="F32" t="n">
-        <v>849.732745730548</v>
+        <v>849.7327457305464</v>
       </c>
       <c r="G32" t="n">
-        <v>437.1924389278462</v>
+        <v>437.1924389278452</v>
       </c>
       <c r="H32" t="n">
-        <v>140.6237780215566</v>
+        <v>140.6237780215564</v>
       </c>
       <c r="I32" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="J32" t="n">
-        <v>437.6214797024377</v>
+        <v>270.2158306820845</v>
       </c>
       <c r="K32" t="n">
-        <v>1071.876429268727</v>
+        <v>904.470780248374</v>
       </c>
       <c r="L32" t="n">
-        <v>1911.00240640703</v>
+        <v>1330.112154981731</v>
       </c>
       <c r="M32" t="n">
-        <v>2416.27988555478</v>
+        <v>2077.499823715906</v>
       </c>
       <c r="N32" t="n">
-        <v>2934.347090945314</v>
+        <v>3028.540484274305</v>
       </c>
       <c r="O32" t="n">
-        <v>3504.40139442077</v>
+        <v>3504.401394420768</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.617392030334</v>
+        <v>4194.617392030332</v>
       </c>
       <c r="Q32" t="n">
-        <v>4635.71910172249</v>
+        <v>4635.719101722487</v>
       </c>
       <c r="R32" t="n">
-        <v>4749.687647755512</v>
+        <v>4749.687647755509</v>
       </c>
       <c r="S32" t="n">
-        <v>4638.352108782878</v>
+        <v>4638.352108782875</v>
       </c>
       <c r="T32" t="n">
-        <v>4434.351995544749</v>
+        <v>4434.351995544746</v>
       </c>
       <c r="U32" t="n">
-        <v>4183.504705326085</v>
+        <v>4183.504705326082</v>
       </c>
       <c r="V32" t="n">
-        <v>3855.138138677423</v>
+        <v>3855.13813867742</v>
       </c>
       <c r="W32" t="n">
-        <v>3505.065804102217</v>
+        <v>3505.065804102214</v>
       </c>
       <c r="X32" t="n">
-        <v>3134.296366536046</v>
+        <v>3134.296366536043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2746.853355255142</v>
+        <v>2746.853355255139</v>
       </c>
     </row>
     <row r="33">
@@ -6765,22 +6765,22 @@
         <v>481.1331931394764</v>
       </c>
       <c r="F33" t="n">
-        <v>334.5986351663614</v>
+        <v>334.5986351663613</v>
       </c>
       <c r="G33" t="n">
-        <v>198.1476923764709</v>
+        <v>198.1476923764708</v>
       </c>
       <c r="H33" t="n">
-        <v>106.7974232127426</v>
+        <v>106.7974232127425</v>
       </c>
       <c r="I33" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="J33" t="n">
-        <v>180.536975100899</v>
+        <v>180.5369751008989</v>
       </c>
       <c r="K33" t="n">
-        <v>533.3288356384651</v>
+        <v>404.8987915969345</v>
       </c>
       <c r="L33" t="n">
         <v>881.3335270404141</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.1824280111676</v>
+        <v>242.4140716725375</v>
       </c>
       <c r="C34" t="n">
-        <v>94.99375295511024</v>
+        <v>242.4140716725375</v>
       </c>
       <c r="D34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="E34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="F34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="G34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="H34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="I34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511018</v>
       </c>
       <c r="J34" t="n">
-        <v>137.6560094108349</v>
+        <v>137.656009410835</v>
       </c>
       <c r="K34" t="n">
-        <v>335.8999941181256</v>
+        <v>335.8999941181258</v>
       </c>
       <c r="L34" t="n">
-        <v>644.3714400730194</v>
+        <v>644.3714400730197</v>
       </c>
       <c r="M34" t="n">
-        <v>979.856797384326</v>
+        <v>979.8567973843265</v>
       </c>
       <c r="N34" t="n">
-        <v>1312.862515808475</v>
+        <v>1312.862515808476</v>
       </c>
       <c r="O34" t="n">
-        <v>1604.632635857873</v>
+        <v>1604.632635857874</v>
       </c>
       <c r="P34" t="n">
-        <v>1831.15310457819</v>
+        <v>1831.153104578191</v>
       </c>
       <c r="Q34" t="n">
-        <v>1905.362075887398</v>
+        <v>1905.362075887399</v>
       </c>
       <c r="R34" t="n">
-        <v>1814.91662363964</v>
+        <v>1814.916623639641</v>
       </c>
       <c r="S34" t="n">
-        <v>1624.643640792739</v>
+        <v>1624.64364079274</v>
       </c>
       <c r="T34" t="n">
-        <v>1624.643640792739</v>
+        <v>1405.258684031479</v>
       </c>
       <c r="U34" t="n">
-        <v>1338.233077651261</v>
+        <v>1118.848120890001</v>
       </c>
       <c r="V34" t="n">
-        <v>1086.244910140282</v>
+        <v>933.3802953530299</v>
       </c>
       <c r="W34" t="n">
-        <v>799.5240607982298</v>
+        <v>646.6594460109776</v>
       </c>
       <c r="X34" t="n">
-        <v>574.2308305951208</v>
+        <v>421.3662158078687</v>
       </c>
       <c r="Y34" t="n">
-        <v>356.134572146499</v>
+        <v>421.3662158078687</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2014.144805759365</v>
       </c>
       <c r="C35" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250482</v>
       </c>
       <c r="D35" t="n">
         <v>1388.477707075261</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.470012908546</v>
+        <v>1053.470012908547</v>
       </c>
       <c r="F35" t="n">
-        <v>693.2646665504681</v>
+        <v>693.2646665504686</v>
       </c>
       <c r="G35" t="n">
-        <v>328.8085974843884</v>
+        <v>328.8085974843883</v>
       </c>
       <c r="H35" t="n">
         <v>80.3241743147196</v>
@@ -6938,25 +6938,25 @@
         <v>255.5462520416939</v>
       </c>
       <c r="K35" t="n">
-        <v>568.8972431625305</v>
+        <v>889.8012016079834</v>
       </c>
       <c r="L35" t="n">
-        <v>1408.023220300833</v>
+        <v>1315.44257634134</v>
       </c>
       <c r="M35" t="n">
-        <v>2358.319097606488</v>
+        <v>2265.738453646994</v>
       </c>
       <c r="N35" t="n">
-        <v>2876.386302997022</v>
+        <v>2888.893369772102</v>
       </c>
       <c r="O35" t="n">
-        <v>3352.247213143485</v>
+        <v>3364.754279918565</v>
       </c>
       <c r="P35" t="n">
-        <v>3723.882489663281</v>
+        <v>3736.389556438361</v>
       </c>
       <c r="Q35" t="n">
-        <v>3954.792358602131</v>
+        <v>3967.299425377211</v>
       </c>
       <c r="R35" t="n">
         <v>4016.20871573598</v>
@@ -6971,10 +6971,10 @@
         <v>3594.278486516417</v>
       </c>
       <c r="V35" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604375</v>
       </c>
       <c r="W35" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.00806076579</v>
       </c>
       <c r="X35" t="n">
         <v>2689.32286093624</v>
@@ -7023,16 +7023,16 @@
         <v>738.233904358493</v>
       </c>
       <c r="M36" t="n">
-        <v>1292.1258771175</v>
+        <v>1163.695833075969</v>
       </c>
       <c r="N36" t="n">
-        <v>1743.257162002394</v>
+        <v>1614.827117960864</v>
       </c>
       <c r="O36" t="n">
-        <v>2133.734356822941</v>
+        <v>2005.304312781411</v>
       </c>
       <c r="P36" t="n">
-        <v>2427.793664500746</v>
+        <v>2299.363620459215</v>
       </c>
       <c r="Q36" t="n">
         <v>2574.445327809855</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>752.9049234844015</v>
+        <v>752.9049234844019</v>
       </c>
       <c r="C37" t="n">
-        <v>634.7492989880238</v>
+        <v>634.7492989880243</v>
       </c>
       <c r="D37" t="n">
         <v>535.4132180072174</v>
@@ -7123,13 +7123,13 @@
         <v>2083.161428870888</v>
       </c>
       <c r="T37" t="n">
-        <v>1911.860709846247</v>
+        <v>1911.860709846248</v>
       </c>
       <c r="U37" t="n">
         <v>1673.53438444139</v>
       </c>
       <c r="V37" t="n">
-        <v>1469.630454667032</v>
+        <v>1469.630454667033</v>
       </c>
       <c r="W37" t="n">
         <v>1230.993843061601</v>
@@ -7138,7 +7138,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.772829883112</v>
+        <v>883.7728298831123</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>693.2646665504694</v>
       </c>
       <c r="G38" t="n">
-        <v>328.8085974843884</v>
+        <v>328.8085974843883</v>
       </c>
       <c r="H38" t="n">
         <v>80.32417431471963</v>
@@ -7175,28 +7175,28 @@
         <v>255.546252041694</v>
       </c>
       <c r="K38" t="n">
-        <v>568.8972431625305</v>
+        <v>889.8012016079836</v>
       </c>
       <c r="L38" t="n">
-        <v>1408.023220300833</v>
+        <v>1315.44257634134</v>
       </c>
       <c r="M38" t="n">
-        <v>1937.852709213704</v>
+        <v>2265.738453646994</v>
       </c>
       <c r="N38" t="n">
-        <v>2888.893369772103</v>
+        <v>2783.805659037529</v>
       </c>
       <c r="O38" t="n">
-        <v>3364.754279918566</v>
+        <v>3259.666569183992</v>
       </c>
       <c r="P38" t="n">
-        <v>3736.389556438362</v>
+        <v>3631.301845703788</v>
       </c>
       <c r="Q38" t="n">
         <v>3967.299425377212</v>
       </c>
       <c r="R38" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S38" t="n">
         <v>3952.957414499968</v>
@@ -7205,7 +7205,7 @@
         <v>3797.041538998461</v>
       </c>
       <c r="U38" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V38" t="n">
         <v>3313.996157604377</v>
@@ -7251,22 +7251,22 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J39" t="n">
-        <v>165.8673964605084</v>
+        <v>290.6975214475131</v>
       </c>
       <c r="K39" t="n">
-        <v>390.229212956544</v>
+        <v>515.0593379435487</v>
       </c>
       <c r="L39" t="n">
-        <v>738.233904358493</v>
+        <v>866.6639484000234</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.695833075969</v>
+        <v>1292.1258771175</v>
       </c>
       <c r="N39" t="n">
-        <v>1614.827117960864</v>
+        <v>1743.257162002394</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.304312781411</v>
+        <v>2133.734356822941</v>
       </c>
       <c r="P39" t="n">
         <v>2427.793664500746</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>752.9049234844015</v>
+        <v>752.9049234844014</v>
       </c>
       <c r="C40" t="n">
-        <v>634.7492989880238</v>
+        <v>634.7492989880237</v>
       </c>
       <c r="D40" t="n">
-        <v>535.4132180072174</v>
+        <v>535.4132180072173</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2806828563536</v>
+        <v>438.2806828563535</v>
       </c>
       <c r="F40" t="n">
-        <v>342.1712937899725</v>
+        <v>342.1712937899724</v>
       </c>
       <c r="G40" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923344</v>
       </c>
       <c r="H40" t="n">
         <v>129.0839781308057</v>
@@ -7330,13 +7330,13 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J40" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761063</v>
       </c>
       <c r="K40" t="n">
-        <v>415.4851382890594</v>
+        <v>415.4851382890591</v>
       </c>
       <c r="L40" t="n">
-        <v>771.0839456496153</v>
+        <v>771.0839456496151</v>
       </c>
       <c r="M40" t="n">
         <v>1153.696664366584</v>
@@ -7351,13 +7351,13 @@
         <v>2146.375055777435</v>
       </c>
       <c r="Q40" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492304</v>
       </c>
       <c r="R40" t="n">
-        <v>2225.350173981168</v>
+        <v>2225.350173981167</v>
       </c>
       <c r="S40" t="n">
-        <v>2083.161428870888</v>
+        <v>2083.161428870887</v>
       </c>
       <c r="T40" t="n">
         <v>1911.860709846247</v>
@@ -7375,7 +7375,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y40" t="n">
-        <v>883.772829883112</v>
+        <v>883.7728298831119</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2014.144805759366</v>
       </c>
       <c r="C41" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D41" t="n">
         <v>1388.477707075262</v>
@@ -7400,7 +7400,7 @@
         <v>693.2646665504687</v>
       </c>
       <c r="G41" t="n">
-        <v>328.8085974843884</v>
+        <v>328.8085974843883</v>
       </c>
       <c r="H41" t="n">
         <v>80.32417431471963</v>
@@ -7412,28 +7412,28 @@
         <v>422.9519010620471</v>
       </c>
       <c r="K41" t="n">
-        <v>1057.206850628336</v>
+        <v>736.3028921828835</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.848225361693</v>
+        <v>1161.94426691624</v>
       </c>
       <c r="M41" t="n">
-        <v>1988.125704509443</v>
+        <v>1667.22174606399</v>
       </c>
       <c r="N41" t="n">
-        <v>2506.192909899978</v>
+        <v>2185.288951454525</v>
       </c>
       <c r="O41" t="n">
-        <v>2982.053820046441</v>
+        <v>3038.142041051106</v>
       </c>
       <c r="P41" t="n">
-        <v>3461.138460010804</v>
+        <v>3526.197715685057</v>
       </c>
       <c r="Q41" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R41" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S41" t="n">
         <v>3952.957414499968</v>
@@ -7442,19 +7442,19 @@
         <v>3797.041538998461</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V41" t="n">
         <v>3313.996157604377</v>
       </c>
       <c r="W41" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765792</v>
       </c>
       <c r="X41" t="n">
         <v>2689.322860936241</v>
       </c>
       <c r="Y41" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.964087391959</v>
       </c>
     </row>
     <row r="42">
@@ -7494,7 +7494,7 @@
         <v>390.229212956544</v>
       </c>
       <c r="L42" t="n">
-        <v>738.233904358493</v>
+        <v>866.6639484000234</v>
       </c>
       <c r="M42" t="n">
         <v>1292.1258771175</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.9049234844017</v>
+        <v>752.9049234844019</v>
       </c>
       <c r="C43" t="n">
-        <v>634.7492989880241</v>
+        <v>634.7492989880243</v>
       </c>
       <c r="D43" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072179</v>
       </c>
       <c r="E43" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563541</v>
       </c>
       <c r="F43" t="n">
-        <v>342.1712937899726</v>
+        <v>342.171293789973</v>
       </c>
       <c r="G43" t="n">
-        <v>225.1753712923345</v>
+        <v>225.175371292335</v>
       </c>
       <c r="H43" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308062</v>
       </c>
       <c r="I43" t="n">
         <v>80.32417431471963</v>
       </c>
       <c r="J43" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761066</v>
       </c>
       <c r="K43" t="n">
         <v>415.4851382890594</v>
@@ -7612,7 +7612,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.7728298831122</v>
+        <v>883.7728298831123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2014.144805759366</v>
+        <v>2014.144805759367</v>
       </c>
       <c r="C44" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D44" t="n">
-        <v>1388.477707075262</v>
+        <v>1388.477707075263</v>
       </c>
       <c r="E44" t="n">
-        <v>1053.470012908547</v>
+        <v>1053.470012908548</v>
       </c>
       <c r="F44" t="n">
-        <v>693.264666550469</v>
+        <v>693.2646665504694</v>
       </c>
       <c r="G44" t="n">
         <v>328.8085974843884</v>
@@ -7646,31 +7646,31 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J44" t="n">
-        <v>422.9519010620471</v>
+        <v>255.546252041694</v>
       </c>
       <c r="K44" t="n">
-        <v>1057.206850628336</v>
+        <v>568.8972431625305</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.848225361693</v>
+        <v>994.5386178958872</v>
       </c>
       <c r="M44" t="n">
-        <v>1988.125704509443</v>
+        <v>1944.834495201542</v>
       </c>
       <c r="N44" t="n">
-        <v>2506.192909899978</v>
+        <v>2823.83411409785</v>
       </c>
       <c r="O44" t="n">
-        <v>2982.053820046441</v>
+        <v>3299.695024244314</v>
       </c>
       <c r="P44" t="n">
-        <v>3526.197715685057</v>
+        <v>3671.33030076411</v>
       </c>
       <c r="Q44" t="n">
-        <v>3967.299425377212</v>
+        <v>3902.24016970296</v>
       </c>
       <c r="R44" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S44" t="n">
         <v>3952.957414499968</v>
@@ -7679,19 +7679,19 @@
         <v>3797.041538998461</v>
       </c>
       <c r="U44" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V44" t="n">
-        <v>3313.996157604377</v>
+        <v>3313.996157604378</v>
       </c>
       <c r="W44" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765793</v>
       </c>
       <c r="X44" t="n">
-        <v>2689.322860936241</v>
+        <v>2689.322860936242</v>
       </c>
       <c r="Y44" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.964087391959</v>
       </c>
     </row>
     <row r="45">
@@ -7737,10 +7737,10 @@
         <v>1163.695833075969</v>
       </c>
       <c r="N45" t="n">
-        <v>1614.827117960864</v>
+        <v>1743.257162002394</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.304312781411</v>
+        <v>2133.734356822941</v>
       </c>
       <c r="P45" t="n">
         <v>2427.793664500746</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.9049234844017</v>
+        <v>752.9049234844003</v>
       </c>
       <c r="C46" t="n">
-        <v>634.7492989880241</v>
+        <v>634.7492989880226</v>
       </c>
       <c r="D46" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072161</v>
       </c>
       <c r="E46" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563521</v>
       </c>
       <c r="F46" t="n">
-        <v>342.1712937899726</v>
+        <v>342.1712937899709</v>
       </c>
       <c r="G46" t="n">
-        <v>225.1753712923346</v>
+        <v>225.1753712923328</v>
       </c>
       <c r="H46" t="n">
         <v>129.0839781308058</v>
@@ -7807,10 +7807,10 @@
         <v>170.1137921761065</v>
       </c>
       <c r="K46" t="n">
-        <v>415.4851382890595</v>
+        <v>415.4851382890593</v>
       </c>
       <c r="L46" t="n">
-        <v>771.0839456496155</v>
+        <v>771.0839456496151</v>
       </c>
       <c r="M46" t="n">
         <v>1153.696664366584</v>
@@ -7825,31 +7825,31 @@
         <v>2146.375055777435</v>
       </c>
       <c r="Q46" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492304</v>
       </c>
       <c r="R46" t="n">
-        <v>2225.350173981168</v>
+        <v>2225.350173981167</v>
       </c>
       <c r="S46" t="n">
-        <v>2083.161428870888</v>
+        <v>2083.161428870887</v>
       </c>
       <c r="T46" t="n">
-        <v>1911.860709846248</v>
+        <v>1911.860709846246</v>
       </c>
       <c r="U46" t="n">
-        <v>1673.53438444139</v>
+        <v>1673.534384441389</v>
       </c>
       <c r="V46" t="n">
-        <v>1469.630454667033</v>
+        <v>1469.630454667031</v>
       </c>
       <c r="W46" t="n">
-        <v>1230.993843061601</v>
+        <v>1230.9938430616</v>
       </c>
       <c r="X46" t="n">
-        <v>1053.784850595113</v>
+        <v>1053.784850595112</v>
       </c>
       <c r="Y46" t="n">
-        <v>883.7728298831122</v>
+        <v>883.7728298831108</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>245.9174408455507</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q3" t="n">
         <v>155.2845116011566</v>
@@ -8143,13 +8143,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N4" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8222,16 +8222,16 @@
         <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9174408455507</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,10 +8298,10 @@
         <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,7 +8310,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>148.6588525046114</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>155.2845116011566</v>
@@ -8380,10 +8380,10 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
-        <v>142.3699895555143</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
         <v>153.7592759669778</v>
@@ -8456,16 +8456,16 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>253.9981915106306</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>166.719161836058</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
         <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>110.8814149497489</v>
+        <v>176.5978348227327</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>129.7273172136672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>129.7273172136673</v>
       </c>
       <c r="R12" t="n">
         <v>5.542318481255791</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>61.04961858223118</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>108.5347105500667</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>129.727317213667</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>129.727317213667</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>110.8814149497489</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>386.5661210829552</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3.636281873258241</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.636281873258099</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>177.2092593919655</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.11264421989052</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.636281873258156</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>129.7273172136672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>61.66104315146305</v>
       </c>
       <c r="K23" t="n">
-        <v>323.1964056096533</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>129.727317213667</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>129.7273172136673</v>
       </c>
       <c r="R24" t="n">
         <v>5.542318481255791</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>172.8592188964087</v>
+        <v>282.304133019795</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>129.7273172136669</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>129.7273172136673</v>
       </c>
       <c r="R27" t="n">
         <v>5.542318481255791</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>8.894784856586995</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>228.7543222276602</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>89.74796588360184</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>129.727317213667</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>5.542318481255791</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>244.5557470569947</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>95.14484174645736</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>129.7273172136672</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>106.1492027621948</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.63340078290886</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>129.7273172136672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>129.7273172136673</v>
       </c>
       <c r="R36" t="n">
         <v>5.542318481255791</v>
@@ -10823,16 +10823,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>24.80000986375808</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>106.1492027621962</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3.636281873258156</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>129.727317213667</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>108.5347105500672</v>
+        <v>117.5963617314696</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>129.727317213667</v>
       </c>
       <c r="M42" t="n">
-        <v>129.7273172136672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>364.5781954603782</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>174.2511304230497</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>129.727317213667</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>129.727317213667</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.140598892059643e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.907985046680551e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>145.4032320771275</v>
       </c>
       <c r="I28" t="n">
-        <v>98.54495862513923</v>
+        <v>41.02857862416777</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.2103552132394</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>88.56807925813609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>129.4406022179082</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.7784344713752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>83.21067530517188</v>
+        <v>164.5774636106685</v>
       </c>
       <c r="D34" t="n">
-        <v>145.9461155302531</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.76460515861</v>
+        <v>143.7646051586098</v>
       </c>
       <c r="F34" t="n">
-        <v>142.751690534972</v>
+        <v>142.7516905349719</v>
       </c>
       <c r="G34" t="n">
-        <v>163.4293586319164</v>
+        <v>163.4293586319162</v>
       </c>
       <c r="H34" t="n">
-        <v>142.7338745891682</v>
+        <v>142.7338745891681</v>
       </c>
       <c r="I34" t="n">
-        <v>95.87560113718001</v>
+        <v>95.87560113717987</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1911071936488</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.85513855426728</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>215.9152958641354</v>
       </c>
     </row>
     <row r="35">
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725549.1985415373</v>
+        <v>725549.1985415372</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725549.1985415372</v>
+        <v>725549.1985415373</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718290.8502489586</v>
+        <v>718290.8502489584</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725549.1985415372</v>
+        <v>725549.1985415373</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="F2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="G2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="H2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="J2" t="n">
-        <v>713049.0717225301</v>
+        <v>713049.0717225299</v>
       </c>
       <c r="K2" t="n">
-        <v>713049.0717225306</v>
+        <v>713049.0717225303</v>
       </c>
       <c r="L2" t="n">
-        <v>714423.6874713053</v>
+        <v>714423.6874713087</v>
       </c>
       <c r="M2" t="n">
         <v>738937.5928778558</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778559</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>1175404.145025334</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54680.98589165755</v>
+        <v>54680.98589165734</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>2135.485990367369</v>
+        <v>2135.485990367402</v>
       </c>
       <c r="M3" t="n">
-        <v>236215.3854958555</v>
+        <v>236215.3854958557</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>402526.5473127806</v>
       </c>
       <c r="D4" t="n">
-        <v>400839.1127573194</v>
+        <v>400839.1127573195</v>
       </c>
       <c r="E4" t="n">
-        <v>79056.20492161805</v>
+        <v>79056.20492161799</v>
       </c>
       <c r="F4" t="n">
         <v>79056.20492161807</v>
@@ -26436,28 +26436,28 @@
         <v>79056.20492161807</v>
       </c>
       <c r="I4" t="n">
-        <v>79056.20492161807</v>
+        <v>79056.20492161805</v>
       </c>
       <c r="J4" t="n">
-        <v>45243.20070722648</v>
+        <v>45243.20070722657</v>
       </c>
       <c r="K4" t="n">
-        <v>45243.20070722648</v>
+        <v>45243.20070722654</v>
       </c>
       <c r="L4" t="n">
-        <v>47041.55091545715</v>
+        <v>47041.55091545724</v>
       </c>
       <c r="M4" t="n">
-        <v>79056.20492161807</v>
+        <v>79056.20492161809</v>
       </c>
       <c r="N4" t="n">
-        <v>79056.20492161807</v>
+        <v>79056.2049216181</v>
       </c>
       <c r="O4" t="n">
-        <v>79056.20492161807</v>
+        <v>79056.2049216181</v>
       </c>
       <c r="P4" t="n">
-        <v>79056.20492161807</v>
+        <v>79056.20492161802</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>88148.49485346195</v>
       </c>
       <c r="F5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="G5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="H5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="I5" t="n">
         <v>88148.49485346195</v>
       </c>
       <c r="J5" t="n">
-        <v>95698.30182475974</v>
+        <v>95698.30182475969</v>
       </c>
       <c r="K5" t="n">
-        <v>95698.30182475974</v>
+        <v>95698.30182475969</v>
       </c>
       <c r="L5" t="n">
-        <v>95295.40477570164</v>
+        <v>95295.40477570159</v>
       </c>
       <c r="M5" t="n">
-        <v>88148.49485346193</v>
+        <v>88148.49485346195</v>
       </c>
       <c r="N5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="O5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="P5" t="n">
         <v>88148.49485346195</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296724.7398198696</v>
+        <v>296724.7398198695</v>
       </c>
       <c r="C6" t="n">
         <v>301853.0391241541</v>
@@ -26528,40 +26528,40 @@
         <v>299708.2247164401</v>
       </c>
       <c r="E6" t="n">
-        <v>-603671.2519225588</v>
+        <v>-603671.2519225579</v>
       </c>
       <c r="F6" t="n">
-        <v>571732.8931027753</v>
+        <v>571732.893102775</v>
       </c>
       <c r="G6" t="n">
+        <v>571732.8931027754</v>
+      </c>
+      <c r="H6" t="n">
+        <v>571732.8931027751</v>
+      </c>
+      <c r="I6" t="n">
+        <v>571732.8931027759</v>
+      </c>
+      <c r="J6" t="n">
+        <v>517354.6707401216</v>
+      </c>
+      <c r="K6" t="n">
+        <v>572035.6566317792</v>
+      </c>
+      <c r="L6" t="n">
+        <v>569883.1516080977</v>
+      </c>
+      <c r="M6" t="n">
+        <v>335517.50760692</v>
+      </c>
+      <c r="N6" t="n">
+        <v>571732.893102775</v>
+      </c>
+      <c r="O6" t="n">
         <v>571732.8931027756</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>571732.8931027759</v>
-      </c>
-      <c r="I6" t="n">
-        <v>571732.8931027751</v>
-      </c>
-      <c r="J6" t="n">
-        <v>517426.5832988863</v>
-      </c>
-      <c r="K6" t="n">
-        <v>572107.5691905444</v>
-      </c>
-      <c r="L6" t="n">
-        <v>569951.2457897791</v>
-      </c>
-      <c r="M6" t="n">
-        <v>335517.5076069203</v>
-      </c>
-      <c r="N6" t="n">
-        <v>571732.8931027757</v>
-      </c>
-      <c r="O6" t="n">
-        <v>571732.8931027754</v>
-      </c>
-      <c r="P6" t="n">
-        <v>571732.8931027751</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>50.27275284721384</v>
+      </c>
+      <c r="F2" t="n">
         <v>50.27275284721394</v>
       </c>
-      <c r="F2" t="n">
-        <v>50.27275284721396</v>
-      </c>
       <c r="G2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="M2" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="N2" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="O2" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="P2" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
     </row>
     <row r="3">
@@ -26811,13 +26811,13 @@
         <v>1004.052178933995</v>
       </c>
       <c r="J4" t="n">
-        <v>1197.739465618374</v>
+        <v>1197.739465618373</v>
       </c>
       <c r="K4" t="n">
-        <v>1197.739465618374</v>
+        <v>1197.739465618373</v>
       </c>
       <c r="L4" t="n">
-        <v>1187.421911938878</v>
+        <v>1187.421911938877</v>
       </c>
       <c r="M4" t="n">
         <v>1004.052178933995</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959253</v>
       </c>
       <c r="M2" t="n">
-        <v>47.60339535925475</v>
+        <v>47.60339535925463</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.31755367949578</v>
       </c>
       <c r="E4" t="n">
-        <v>978.4318877393644</v>
+        <v>978.4318877393647</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>208.9900241995136</v>
+        <v>208.9900241995128</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>795.0621547344815</v>
+        <v>795.0621547344825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>10.31755367949578</v>
       </c>
       <c r="M4" t="n">
-        <v>978.4318877393644</v>
+        <v>978.4318877393647</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>197.1054258240356</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.8011237727943</v>
+        <v>153.0545324465364</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D3" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="4">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5123281551278</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27579,10 +27579,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>273.04434713326</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>367.4311041483455</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.16642925207</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,13 +27710,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>158.9511112267647</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27819,13 +27819,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
-        <v>214.4669382249506</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>271.0162918413558</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.4069178739021</v>
+        <v>212.2310041857062</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>247.2777810549786</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>385.8503694286692</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140.9128924552365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>114.7771646789798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V9" t="n">
         <v>207.1802959547944</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28056,25 +28056,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>260.9027071419601</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X10" t="n">
-        <v>203.1433029048063</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="C11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="D11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="E11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="F11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="G11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="H11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="I11" t="n">
         <v>47.84308230374108</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="T11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="U11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="V11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="W11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="X11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="C13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="D13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="E13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="F13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="G13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="H13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="I13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="J13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="K13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="L13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="M13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="N13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="O13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="P13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="R13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="S13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="T13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="U13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="V13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="W13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="X13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.27275284721394</v>
+        <v>50.27275284721384</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I14" t="n">
         <v>47.84308230374108</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="J16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="K16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="L16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="M16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="N16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="O16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="P16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="R16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="S16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I17" t="n">
         <v>47.84308230374108</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="J19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="K19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="L19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="M19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="N19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="O19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="P19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="R19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="S19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I20" t="n">
         <v>47.84308230374108</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="J22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="K22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="L22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="M22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="N22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="O22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="P22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="R22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="S22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F23" t="n">
-        <v>50.27275284721424</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I23" t="n">
         <v>47.84308230374108</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="J25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="K25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="L25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="M25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="N25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="O25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="P25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="R25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="S25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.683852023926818e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29515,22 +29515,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.121955025484504e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="C32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="D32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="E32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="F32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="G32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="H32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="I32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="T32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="U32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="V32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="W32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="X32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="C34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="D34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="E34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="F34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="G34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="H34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="I34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="J34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="K34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="L34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="M34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="N34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="O34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="P34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="R34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="S34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="T34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="U34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="V34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="W34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="X34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.669357487959211</v>
+        <v>2.669357487959349</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="C35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="D35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="E35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="F35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="G35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="H35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="I35" t="n">
         <v>47.84308230374108</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="T35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="U35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="V35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="W35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="X35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="C37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="D37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="E37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="F37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="G37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="H37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="I37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="J37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="K37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="L37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="M37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="N37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="O37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="P37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="R37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="S37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="T37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="U37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="V37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="W37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="X37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="C38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="D38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="E38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="F38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="G38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="H38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="I38" t="n">
         <v>47.84308230374108</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="T38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="U38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="V38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="W38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="X38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="C40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="D40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="E40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="F40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="G40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="H40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="I40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="J40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="K40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="L40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="M40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="N40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="O40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="P40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="R40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="S40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="T40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="U40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="V40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="W40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="X40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.27275284721397</v>
+        <v>50.27275284721399</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="C41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="D41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="E41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="F41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="G41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="H41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="I41" t="n">
         <v>47.84308230374108</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="T41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="U41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="V41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="W41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="X41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="C43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="D43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="E43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="F43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="G43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="H43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="I43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="J43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="K43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="L43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="M43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="N43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="O43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="P43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="R43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="S43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="T43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="U43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="V43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="W43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="X43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721399</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="C44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="D44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="E44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="F44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="G44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="H44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="I44" t="n">
         <v>47.84308230374108</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="T44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="U44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="V44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="W44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="X44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="C46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="D46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="E46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="F46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="G46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="H46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="I46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="J46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="K46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="L46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="M46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="N46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="O46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="P46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="R46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="S46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="T46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="U46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="V46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="W46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="X46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.27275284721395</v>
+        <v>50.27275284721389</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q3" t="n">
         <v>15.30273751513505</v>
@@ -34863,13 +34863,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,11 +35018,11 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
@@ -35030,7 +35030,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>15.30273751513505</v>
@@ -35100,10 +35100,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N7" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="O7" t="n">
         <v>15.30273751513505</v>
@@ -35176,16 +35176,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O8" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M9" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>346.0886128760883</v>
       </c>
       <c r="K11" t="n">
-        <v>427.3975675970584</v>
+        <v>493.1139874700422</v>
       </c>
       <c r="L11" t="n">
         <v>429.9407825589462</v>
@@ -35431,7 +35431,7 @@
         <v>445.5572825173285</v>
       </c>
       <c r="R11" t="n">
-        <v>115.1197434676989</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>351.5198903049991</v>
       </c>
       <c r="M12" t="n">
-        <v>559.486841170714</v>
+        <v>429.7595239570468</v>
       </c>
       <c r="N12" t="n">
         <v>455.6881665503986</v>
@@ -35507,7 +35507,7 @@
         <v>297.0296037149539</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.1329932415242</v>
+        <v>277.8603104551915</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837049</v>
       </c>
       <c r="K13" t="n">
-        <v>247.8498445585382</v>
+        <v>247.8498445585381</v>
       </c>
       <c r="L13" t="n">
-        <v>359.190714505612</v>
+        <v>359.1907145056119</v>
       </c>
       <c r="M13" t="n">
-        <v>386.4774936535039</v>
+        <v>386.4774936535038</v>
       </c>
       <c r="N13" t="n">
-        <v>383.9728079089003</v>
+        <v>383.9728079089002</v>
       </c>
       <c r="O13" t="n">
-        <v>342.3206883384444</v>
+        <v>342.3206883384443</v>
       </c>
       <c r="P13" t="n">
-        <v>276.4119496222016</v>
+        <v>276.4119496222015</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372421</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>346.0886128760883</v>
       </c>
       <c r="K14" t="n">
-        <v>640.6615652184743</v>
+        <v>377.5657712295407</v>
       </c>
       <c r="L14" t="n">
         <v>429.9407825589462</v>
@@ -35656,19 +35656,19 @@
         <v>510.3812920684345</v>
       </c>
       <c r="N14" t="n">
-        <v>523.3002074651863</v>
+        <v>960.6471318771705</v>
       </c>
       <c r="O14" t="n">
         <v>480.6675860065285</v>
       </c>
       <c r="P14" t="n">
-        <v>483.9238787518812</v>
+        <v>375.3891682018145</v>
       </c>
       <c r="Q14" t="n">
         <v>445.5572825173285</v>
       </c>
       <c r="R14" t="n">
-        <v>115.1197434676989</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>226.6280974707431</v>
       </c>
       <c r="L15" t="n">
-        <v>351.5198903049991</v>
+        <v>481.2472075186661</v>
       </c>
       <c r="M15" t="n">
         <v>429.7595239570468</v>
       </c>
       <c r="N15" t="n">
-        <v>585.4154837640656</v>
+        <v>455.6881665503986</v>
       </c>
       <c r="O15" t="n">
         <v>394.4214089096433</v>
@@ -35884,13 +35884,13 @@
         <v>346.0886128760883</v>
       </c>
       <c r="K17" t="n">
-        <v>427.3975675970584</v>
+        <v>640.6615652184743</v>
       </c>
       <c r="L17" t="n">
         <v>429.9407825589462</v>
       </c>
       <c r="M17" t="n">
-        <v>510.3812920684345</v>
+        <v>896.9474131513897</v>
       </c>
       <c r="N17" t="n">
         <v>523.3002074651863</v>
@@ -35899,13 +35899,13 @@
         <v>480.6675860065285</v>
       </c>
       <c r="P17" t="n">
-        <v>697.1878763732971</v>
+        <v>375.3891682018145</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.5572825173285</v>
+        <v>233.2422918574239</v>
       </c>
       <c r="R17" t="n">
-        <v>115.1197434676989</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>212.4983304371651</v>
       </c>
       <c r="K18" t="n">
-        <v>226.6280974707431</v>
+        <v>230.2643793440013</v>
       </c>
       <c r="L18" t="n">
         <v>351.5198903049991</v>
@@ -35978,7 +35978,7 @@
         <v>394.4214089096433</v>
       </c>
       <c r="P18" t="n">
-        <v>300.665885588212</v>
+        <v>297.0296037149539</v>
       </c>
       <c r="Q18" t="n">
         <v>148.1329932415242</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>346.0886128760883</v>
+        <v>176.9919977040145</v>
       </c>
       <c r="K20" t="n">
-        <v>316.5161526473095</v>
+        <v>493.7254120392751</v>
       </c>
       <c r="L20" t="n">
         <v>429.9407825589462</v>
@@ -36142,7 +36142,7 @@
         <v>233.2422918574239</v>
       </c>
       <c r="R20" t="n">
-        <v>57.51596781460695</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>212.4983304371651</v>
+        <v>86.40729509675629</v>
       </c>
       <c r="K21" t="n">
         <v>226.6280974707431</v>
       </c>
       <c r="L21" t="n">
-        <v>355.1561721782572</v>
+        <v>351.5198903049991</v>
       </c>
       <c r="M21" t="n">
-        <v>429.7595239570468</v>
+        <v>559.486841170714</v>
       </c>
       <c r="N21" t="n">
         <v>455.6881665503986</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>346.0886128760883</v>
+        <v>238.6530408554776</v>
       </c>
       <c r="K23" t="n">
-        <v>639.7125582569628</v>
+        <v>316.5161526473095</v>
       </c>
       <c r="L23" t="n">
         <v>429.9407825589462</v>
@@ -36367,19 +36367,19 @@
         <v>510.3812920684345</v>
       </c>
       <c r="N23" t="n">
-        <v>523.3002074651863</v>
+        <v>960.6471318771705</v>
       </c>
       <c r="O23" t="n">
-        <v>480.6675860065285</v>
+        <v>861.4677672692738</v>
       </c>
       <c r="P23" t="n">
-        <v>697.1878763732971</v>
+        <v>375.3891682018145</v>
       </c>
       <c r="Q23" t="n">
         <v>233.2422918574239</v>
       </c>
       <c r="R23" t="n">
-        <v>115.1197434676989</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>394.4214089096433</v>
       </c>
       <c r="P24" t="n">
-        <v>426.756920928621</v>
+        <v>297.0296037149539</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.1329932415242</v>
+        <v>277.8603104551915</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.0886128760883</v>
+        <v>176.9919977040145</v>
       </c>
       <c r="K26" t="n">
-        <v>640.6615652184743</v>
+        <v>316.5161526473095</v>
       </c>
       <c r="L26" t="n">
         <v>429.9407825589462</v>
       </c>
       <c r="M26" t="n">
-        <v>510.3812920684345</v>
+        <v>959.894825561267</v>
       </c>
       <c r="N26" t="n">
-        <v>696.159426361595</v>
+        <v>805.6043404849813</v>
       </c>
       <c r="O26" t="n">
         <v>861.4677672692738</v>
@@ -36616,7 +36616,7 @@
         <v>445.5572825173285</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1197434676989</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>455.6881665503986</v>
       </c>
       <c r="O27" t="n">
-        <v>524.1487261233102</v>
+        <v>394.4214089096433</v>
       </c>
       <c r="P27" t="n">
         <v>297.0296037149539</v>
       </c>
       <c r="Q27" t="n">
-        <v>148.1329932415242</v>
+        <v>277.8603104551915</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>185.8867825606015</v>
+        <v>176.9919977040145</v>
       </c>
       <c r="K29" t="n">
-        <v>640.6615652184743</v>
+        <v>316.5161526473095</v>
       </c>
       <c r="L29" t="n">
-        <v>847.6019971093966</v>
+        <v>658.6951047866064</v>
       </c>
       <c r="M29" t="n">
-        <v>959.894825561267</v>
+        <v>510.3812920684345</v>
       </c>
       <c r="N29" t="n">
-        <v>523.3002074651863</v>
+        <v>960.6471318771705</v>
       </c>
       <c r="O29" t="n">
         <v>861.4677672692738</v>
       </c>
       <c r="P29" t="n">
-        <v>375.3891682018145</v>
+        <v>697.1878763732971</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.2422918574239</v>
+        <v>445.5572825173285</v>
       </c>
       <c r="R29" t="n">
         <v>115.1197434676989</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>176.1552609803581</v>
+        <v>86.40729509675629</v>
       </c>
       <c r="K30" t="n">
         <v>226.6280974707431</v>
@@ -36926,13 +36926,13 @@
         <v>394.4214089096433</v>
       </c>
       <c r="P30" t="n">
-        <v>297.0296037149539</v>
+        <v>426.756920928621</v>
       </c>
       <c r="Q30" t="n">
         <v>148.1329932415242</v>
       </c>
       <c r="R30" t="n">
-        <v>39.97935133006503</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>346.0886128760883</v>
+        <v>176.9919977040145</v>
       </c>
       <c r="K32" t="n">
         <v>640.6615652184743</v>
       </c>
       <c r="L32" t="n">
-        <v>847.6019971093966</v>
+        <v>429.9407825589462</v>
       </c>
       <c r="M32" t="n">
-        <v>510.3812920684345</v>
+        <v>754.9370391254292</v>
       </c>
       <c r="N32" t="n">
-        <v>523.3002074651863</v>
+        <v>960.6471318771705</v>
       </c>
       <c r="O32" t="n">
-        <v>575.8124277529859</v>
+        <v>480.6675860065285</v>
       </c>
       <c r="P32" t="n">
         <v>697.1878763732971</v>
@@ -37148,10 +37148,10 @@
         <v>86.40729509675629</v>
       </c>
       <c r="K33" t="n">
-        <v>356.3554146844102</v>
+        <v>226.6280974707431</v>
       </c>
       <c r="L33" t="n">
-        <v>351.5198903049991</v>
+        <v>481.2472075186662</v>
       </c>
       <c r="M33" t="n">
         <v>429.7595239570468</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.09318833911587</v>
+        <v>43.093188339116</v>
       </c>
       <c r="K34" t="n">
-        <v>200.2464491992835</v>
+        <v>200.2464491992836</v>
       </c>
       <c r="L34" t="n">
-        <v>311.5873191463573</v>
+        <v>311.5873191463574</v>
       </c>
       <c r="M34" t="n">
-        <v>338.8740982942492</v>
+        <v>338.8740982942493</v>
       </c>
       <c r="N34" t="n">
-        <v>336.3694125496456</v>
+        <v>336.3694125496457</v>
       </c>
       <c r="O34" t="n">
-        <v>294.7172929791897</v>
+        <v>294.7172929791898</v>
       </c>
       <c r="P34" t="n">
-        <v>228.8085542629468</v>
+        <v>228.808554262947</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.95855687798746</v>
+        <v>74.9585568779876</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>176.9919977040145</v>
       </c>
       <c r="K35" t="n">
-        <v>316.5161526473095</v>
+        <v>640.6615652184743</v>
       </c>
       <c r="L35" t="n">
-        <v>847.6019971093966</v>
+        <v>429.9407825589462</v>
       </c>
       <c r="M35" t="n">
         <v>959.894825561267</v>
       </c>
       <c r="N35" t="n">
-        <v>523.3002074651863</v>
+        <v>629.4494102273811</v>
       </c>
       <c r="O35" t="n">
         <v>480.6675860065285</v>
@@ -37327,7 +37327,7 @@
         <v>233.2422918574239</v>
       </c>
       <c r="R35" t="n">
-        <v>62.03672437762528</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>351.5198903049991</v>
       </c>
       <c r="M36" t="n">
-        <v>559.486841170714</v>
+        <v>429.7595239570468</v>
       </c>
       <c r="N36" t="n">
         <v>455.6881665503986</v>
@@ -37403,7 +37403,7 @@
         <v>297.0296037149539</v>
       </c>
       <c r="Q36" t="n">
-        <v>148.1329932415242</v>
+        <v>277.8603104551915</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.69658369837062</v>
+        <v>90.69658369837063</v>
       </c>
       <c r="K37" t="n">
-        <v>247.8498445585382</v>
+        <v>247.8498445585383</v>
       </c>
       <c r="L37" t="n">
         <v>359.190714505612</v>
       </c>
       <c r="M37" t="n">
-        <v>386.4774936535039</v>
+        <v>386.477493653504</v>
       </c>
       <c r="N37" t="n">
         <v>383.9728079089004</v>
       </c>
       <c r="O37" t="n">
-        <v>342.3206883384444</v>
+        <v>342.3206883384445</v>
       </c>
       <c r="P37" t="n">
         <v>276.4119496222016</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>176.9919977040145</v>
       </c>
       <c r="K38" t="n">
-        <v>316.5161526473095</v>
+        <v>640.6615652184743</v>
       </c>
       <c r="L38" t="n">
-        <v>847.6019971093966</v>
+        <v>429.9407825589462</v>
       </c>
       <c r="M38" t="n">
-        <v>535.1813019321926</v>
+        <v>959.894825561267</v>
       </c>
       <c r="N38" t="n">
-        <v>960.6471318771705</v>
+        <v>523.3002074651863</v>
       </c>
       <c r="O38" t="n">
         <v>480.6675860065285</v>
@@ -37561,7 +37561,7 @@
         <v>375.3891682018145</v>
       </c>
       <c r="Q38" t="n">
-        <v>233.2422918574239</v>
+        <v>339.3914946196201</v>
       </c>
       <c r="R38" t="n">
         <v>49.40332359471643</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.40729509675629</v>
+        <v>212.4983304371651</v>
       </c>
       <c r="K39" t="n">
         <v>226.6280974707431</v>
       </c>
       <c r="L39" t="n">
-        <v>351.5198903049991</v>
+        <v>355.1561721782572</v>
       </c>
       <c r="M39" t="n">
         <v>429.7595239570468</v>
@@ -37637,7 +37637,7 @@
         <v>394.4214089096433</v>
       </c>
       <c r="P39" t="n">
-        <v>426.756920928621</v>
+        <v>297.0296037149539</v>
       </c>
       <c r="Q39" t="n">
         <v>148.1329932415242</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.69658369837062</v>
+        <v>90.69658369837063</v>
       </c>
       <c r="K40" t="n">
-        <v>247.8498445585382</v>
+        <v>247.8498445585383</v>
       </c>
       <c r="L40" t="n">
         <v>359.190714505612</v>
       </c>
       <c r="M40" t="n">
-        <v>386.4774936535039</v>
+        <v>386.477493653504</v>
       </c>
       <c r="N40" t="n">
         <v>383.9728079089004</v>
       </c>
       <c r="O40" t="n">
-        <v>342.3206883384444</v>
+        <v>342.3206883384445</v>
       </c>
       <c r="P40" t="n">
         <v>276.4119496222016</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>346.0886128760883</v>
       </c>
       <c r="K41" t="n">
-        <v>640.6615652184743</v>
+        <v>316.5161526473095</v>
       </c>
       <c r="L41" t="n">
         <v>429.9407825589462</v>
@@ -37792,16 +37792,16 @@
         <v>523.3002074651863</v>
       </c>
       <c r="O41" t="n">
-        <v>480.6675860065285</v>
+        <v>861.4677672692738</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9238787518817</v>
+        <v>492.9855299332841</v>
       </c>
       <c r="Q41" t="n">
         <v>445.5572825173285</v>
       </c>
       <c r="R41" t="n">
-        <v>115.1197434676989</v>
+        <v>49.40332359471643</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>226.6280974707431</v>
       </c>
       <c r="L42" t="n">
-        <v>351.5198903049991</v>
+        <v>481.2472075186661</v>
       </c>
       <c r="M42" t="n">
-        <v>559.486841170714</v>
+        <v>429.7595239570468</v>
       </c>
       <c r="N42" t="n">
         <v>455.6881665503986</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837063</v>
       </c>
       <c r="K43" t="n">
-        <v>247.8498445585382</v>
+        <v>247.8498445585383</v>
       </c>
       <c r="L43" t="n">
         <v>359.190714505612</v>
       </c>
       <c r="M43" t="n">
-        <v>386.4774936535039</v>
+        <v>386.477493653504</v>
       </c>
       <c r="N43" t="n">
-        <v>383.9728079089003</v>
+        <v>383.9728079089004</v>
       </c>
       <c r="O43" t="n">
-        <v>342.3206883384444</v>
+        <v>342.3206883384445</v>
       </c>
       <c r="P43" t="n">
         <v>276.4119496222016</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>346.0886128760883</v>
+        <v>176.9919977040145</v>
       </c>
       <c r="K44" t="n">
-        <v>640.6615652184743</v>
+        <v>316.5161526473095</v>
       </c>
       <c r="L44" t="n">
         <v>429.9407825589462</v>
       </c>
       <c r="M44" t="n">
-        <v>510.3812920684345</v>
+        <v>959.894825561267</v>
       </c>
       <c r="N44" t="n">
-        <v>523.3002074651863</v>
+        <v>887.8784029255645</v>
       </c>
       <c r="O44" t="n">
         <v>480.6675860065285</v>
       </c>
       <c r="P44" t="n">
-        <v>549.6402986248642</v>
+        <v>375.3891682018145</v>
       </c>
       <c r="Q44" t="n">
-        <v>445.5572825173285</v>
+        <v>233.2422918574239</v>
       </c>
       <c r="R44" t="n">
-        <v>49.40332359471643</v>
+        <v>115.1197434676989</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>429.7595239570468</v>
       </c>
       <c r="N45" t="n">
-        <v>455.6881665503986</v>
+        <v>585.4154837640656</v>
       </c>
       <c r="O45" t="n">
         <v>394.4214089096433</v>
       </c>
       <c r="P45" t="n">
-        <v>426.756920928621</v>
+        <v>297.0296037149539</v>
       </c>
       <c r="Q45" t="n">
         <v>148.1329932415242</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837055</v>
       </c>
       <c r="K46" t="n">
         <v>247.8498445585382</v>
       </c>
       <c r="L46" t="n">
-        <v>359.190714505612</v>
+        <v>359.1907145056119</v>
       </c>
       <c r="M46" t="n">
         <v>386.4774936535039</v>
@@ -38190,10 +38190,10 @@
         <v>342.3206883384444</v>
       </c>
       <c r="P46" t="n">
-        <v>276.4119496222016</v>
+        <v>276.4119496222015</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372421</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
